--- a/teaching/traditional_assets/database/data/finland/finland_construction_supplies.xlsx
+++ b/teaching/traditional_assets/database/data/finland/finland_construction_supplies.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="hlse_mocorp" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,118 +593,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0314</v>
+        <v>0.154</v>
+      </c>
+      <c r="F2">
+        <v>-0.278</v>
       </c>
       <c r="G2">
-        <v>0.03320872274143302</v>
+        <v>0.1270545221295702</v>
       </c>
       <c r="H2">
-        <v>-0.01292488750432676</v>
+        <v>0.1142339961513791</v>
       </c>
       <c r="I2">
-        <v>-0.02011177772477146</v>
+        <v>0.08967799871712635</v>
       </c>
       <c r="J2">
-        <v>-0.02011177772477146</v>
+        <v>0.07684422151555879</v>
       </c>
       <c r="K2">
-        <v>-82.7</v>
+        <v>197.3</v>
       </c>
       <c r="L2">
-        <v>-0.05725164416753202</v>
+        <v>0.05062219371391918</v>
       </c>
       <c r="M2">
-        <v>12.1</v>
+        <v>305.675</v>
       </c>
       <c r="N2">
-        <v>0.009737646869467247</v>
+        <v>0.03650417378219903</v>
       </c>
       <c r="O2">
-        <v>-0.1463119709794438</v>
+        <v>1.549290420679168</v>
       </c>
       <c r="P2">
-        <v>12.1</v>
+        <v>295.9</v>
       </c>
       <c r="Q2">
-        <v>0.009737646869467247</v>
+        <v>0.03533682840321483</v>
       </c>
       <c r="R2">
-        <v>-0.1463119709794438</v>
+        <v>1.499746578813989</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>9.774999999999986</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.03197840844033692</v>
       </c>
       <c r="U2">
-        <v>278.1</v>
+        <v>575.6</v>
       </c>
       <c r="V2">
-        <v>0.223804925156929</v>
+        <v>0.06873902814765279</v>
       </c>
       <c r="W2">
-        <v>-0.2136639784946237</v>
+        <v>0.01725715288803983</v>
       </c>
       <c r="X2">
-        <v>0.09404279186657348</v>
+        <v>0.0706503506405235</v>
       </c>
       <c r="Y2">
-        <v>-0.3077067703611971</v>
+        <v>-0.05339319775248367</v>
       </c>
       <c r="Z2">
-        <v>2.308218466387971</v>
+        <v>2.646104336963311</v>
       </c>
       <c r="AA2">
-        <v>-0.07242977671516516</v>
+        <v>0.06462194924929153</v>
       </c>
       <c r="AB2">
-        <v>0.08002787170548861</v>
+        <v>0.05912762226601419</v>
       </c>
       <c r="AC2">
-        <v>-0.1524576484206538</v>
+        <v>0.005494326983277335</v>
       </c>
       <c r="AD2">
-        <v>323</v>
+        <v>1718.1</v>
       </c>
       <c r="AE2">
-        <v>82.40731461716187</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>405.4073146171619</v>
+        <v>1718.1</v>
       </c>
       <c r="AG2">
-        <v>127.3073146171619</v>
+        <v>1142.5</v>
       </c>
       <c r="AH2">
-        <v>0.2459984922526509</v>
+        <v>0.1702471313343507</v>
       </c>
       <c r="AI2">
-        <v>0.4637958152709438</v>
+        <v>0.4164989939637826</v>
       </c>
       <c r="AJ2">
-        <v>0.09293133430179511</v>
+        <v>0.1200584266829197</v>
       </c>
       <c r="AK2">
-        <v>0.2136002553910537</v>
+        <v>0.3218763206085364</v>
       </c>
       <c r="AL2">
-        <v>9.890000000000001</v>
+        <v>36.928</v>
       </c>
       <c r="AM2">
-        <v>2.958000000000001</v>
+        <v>28.588</v>
       </c>
       <c r="AN2">
-        <v>9.294964028776979</v>
+        <v>3.917861947871297</v>
       </c>
       <c r="AO2">
-        <v>-3.458038422649141</v>
+        <v>9.464904679376083</v>
       </c>
       <c r="AP2">
-        <v>3.663519845098183</v>
+        <v>2.605294962716348</v>
       </c>
       <c r="AQ2">
-        <v>-11.56186612576065</v>
+        <v>12.22610885686302</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +718,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Outotec Oyj (HLSE:OTE1V)</t>
+          <t>Metso Outotec Oyj (HLSE:MOCORP)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -721,119 +726,119 @@
           <t>Construction Supplies</t>
         </is>
       </c>
-      <c r="D3">
-        <v>-0.0314</v>
+      <c r="F3">
+        <v>-0.278</v>
       </c>
       <c r="G3">
-        <v>0.03848142403427136</v>
+        <v>0.1304955560830235</v>
       </c>
       <c r="H3">
-        <v>-0.009749612231331707</v>
+        <v>0.1174934725848564</v>
       </c>
       <c r="I3">
-        <v>-0.01415064122053986</v>
+        <v>0.09322994962681647</v>
       </c>
       <c r="J3">
-        <v>-0.01415064122053986</v>
+        <v>0.06654575909758631</v>
       </c>
       <c r="K3">
-        <v>-49.7</v>
+        <v>204.3</v>
       </c>
       <c r="L3">
-        <v>-0.03670876726493832</v>
+        <v>0.05388084500356041</v>
       </c>
       <c r="M3">
-        <v>12.1</v>
+        <v>305.29</v>
       </c>
       <c r="N3">
-        <v>0.01030225627926777</v>
+        <v>0.03687166356675282</v>
       </c>
       <c r="O3">
-        <v>-0.2434607645875251</v>
+        <v>1.494322075379344</v>
       </c>
       <c r="P3">
-        <v>12.1</v>
+        <v>295.9</v>
       </c>
       <c r="Q3">
-        <v>0.01030225627926777</v>
+        <v>0.03573757820237204</v>
       </c>
       <c r="R3">
-        <v>-0.2434607645875251</v>
+        <v>1.448360254527655</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>9.389999999999986</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.03075764027645841</v>
       </c>
       <c r="U3">
-        <v>261</v>
+        <v>560.1</v>
       </c>
       <c r="V3">
-        <v>0.2222222222222222</v>
+        <v>0.06764656151114762</v>
       </c>
       <c r="W3">
-        <v>-0.09466666666666668</v>
+        <v>0.1556215722120658</v>
       </c>
       <c r="X3">
-        <v>0.08570471300090556</v>
+        <v>0.0655726117017572</v>
       </c>
       <c r="Y3">
-        <v>-0.1803713796675722</v>
+        <v>0.09004896051030863</v>
       </c>
       <c r="Z3">
-        <v>2.530215481649159</v>
+        <v>2.716701296840295</v>
       </c>
       <c r="AA3">
-        <v>-0.0358041714914727</v>
+        <v>0.1807849500396346</v>
       </c>
       <c r="AB3">
-        <v>0.07340304331962032</v>
+        <v>0.05910522579058866</v>
       </c>
       <c r="AC3">
-        <v>-0.109207214811093</v>
+        <v>0.1216797242490459</v>
       </c>
       <c r="AD3">
-        <v>280.8</v>
+        <v>1674.5</v>
       </c>
       <c r="AE3">
-        <v>77.29276574244456</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>358.0927657424446</v>
+        <v>1674.5</v>
       </c>
       <c r="AG3">
-        <v>97.09276574244456</v>
+        <v>1114.4</v>
       </c>
       <c r="AH3">
-        <v>0.233651609055437</v>
+        <v>0.1682187597319751</v>
       </c>
       <c r="AI3">
-        <v>0.4656646742270902</v>
+        <v>0.4157459592323162</v>
       </c>
       <c r="AJ3">
-        <v>0.07635523601438156</v>
+        <v>0.1186263864937941</v>
       </c>
       <c r="AK3">
-        <v>0.1911302134402268</v>
+        <v>0.3213750144191949</v>
       </c>
       <c r="AL3">
-        <v>8.51</v>
+        <v>36.4</v>
       </c>
       <c r="AM3">
-        <v>2.08</v>
+        <v>28.18</v>
       </c>
       <c r="AN3">
-        <v>7.488</v>
+        <v>3.843240761992197</v>
       </c>
       <c r="AO3">
-        <v>-2.7262044653349</v>
+        <v>9.711538461538462</v>
       </c>
       <c r="AP3">
-        <v>2.589140419798521</v>
+        <v>2.557723204039477</v>
       </c>
       <c r="AQ3">
-        <v>-11.15384615384615</v>
+        <v>12.54435770049681</v>
       </c>
     </row>
     <row r="4">
@@ -852,32 +857,35 @@
           <t>Construction Supplies</t>
         </is>
       </c>
+      <c r="D4">
+        <v>0.154</v>
+      </c>
       <c r="G4">
-        <v>-0.04558498896247241</v>
+        <v>0.003733459357277883</v>
       </c>
       <c r="H4">
-        <v>-0.06037527593818984</v>
+        <v>-0.002580340264650284</v>
       </c>
       <c r="I4">
-        <v>-0.1091932646241</v>
+        <v>-0.03761814744801512</v>
       </c>
       <c r="J4">
-        <v>-0.1091932646241</v>
+        <v>-0.03761814744801512</v>
       </c>
       <c r="K4">
-        <v>-33</v>
+        <v>-7</v>
       </c>
       <c r="L4">
-        <v>-0.3642384105960265</v>
+        <v>-0.06616257088846882</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>0.385</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.004100106496272631</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>-0.055</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -889,76 +897,8797 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.385</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>17.1</v>
+        <v>15.5</v>
       </c>
       <c r="V4">
-        <v>0.2511013215859031</v>
+        <v>0.1650692225772098</v>
       </c>
       <c r="W4">
-        <v>-0.3326612903225806</v>
+        <v>-0.1211072664359862</v>
       </c>
       <c r="X4">
-        <v>0.1023808707322414</v>
+        <v>0.07572808957928978</v>
       </c>
       <c r="Y4">
-        <v>-0.435042161054822</v>
+        <v>-0.196835356015276</v>
       </c>
       <c r="Z4">
-        <v>0.9987372601623636</v>
+        <v>1.37011137011137</v>
       </c>
       <c r="AA4">
-        <v>-0.1090553819388576</v>
+        <v>-0.05154105154105154</v>
       </c>
       <c r="AB4">
-        <v>0.08665270009135689</v>
+        <v>0.05915001874143973</v>
       </c>
       <c r="AC4">
-        <v>-0.1957080820302145</v>
+        <v>-0.1106910702824913</v>
       </c>
       <c r="AD4">
-        <v>42.2</v>
+        <v>43.6</v>
       </c>
       <c r="AE4">
-        <v>5.114548874717316</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>47.31454887471732</v>
+        <v>43.6</v>
       </c>
       <c r="AG4">
-        <v>30.21454887471732</v>
+        <v>28.1</v>
       </c>
       <c r="AH4">
-        <v>0.4099530720869285</v>
+        <v>0.3170909090909091</v>
       </c>
       <c r="AI4">
-        <v>0.4501236924976962</v>
+        <v>0.4476386036960985</v>
       </c>
       <c r="AJ4">
-        <v>0.3073253065852935</v>
+        <v>0.230327868852459</v>
       </c>
       <c r="AK4">
-        <v>0.3432903907480757</v>
+        <v>0.3431013431013431</v>
       </c>
       <c r="AL4">
-        <v>1.38</v>
+        <v>0.528</v>
       </c>
       <c r="AM4">
-        <v>0.8779999999999999</v>
+        <v>0.408</v>
       </c>
       <c r="AN4">
-        <v>-15.34545454545455</v>
+        <v>15.40636042402827</v>
       </c>
       <c r="AO4">
-        <v>-7.971014492753624</v>
+        <v>-7.537878787878787</v>
       </c>
       <c r="AP4">
-        <v>-10.98710868171539</v>
+        <v>9.929328621908127</v>
       </c>
       <c r="AQ4">
-        <v>-12.52847380410023</v>
+        <v>-9.754901960784313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Metso Outotec Oyj (HLSE:MOCORP)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HLSE:MOCORP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Construction Supplies</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.168218759731975</v>
+      </c>
+      <c r="F2">
+        <v>0.19</v>
+      </c>
+      <c r="G2">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="H2">
+        <v>8452.13899308894</v>
+      </c>
+      <c r="I2">
+        <v>9394.200000000001</v>
+      </c>
+      <c r="J2">
+        <v>9783.355993088941</v>
+      </c>
+      <c r="K2">
+        <v>1674.5</v>
+      </c>
+      <c r="L2">
+        <v>1891.317</v>
+      </c>
+      <c r="M2">
+        <v>0.0591052257905887</v>
+      </c>
+      <c r="N2">
+        <v>0.057124105803005</v>
+      </c>
+      <c r="O2">
+        <v>0.027126329482859</v>
+      </c>
+      <c r="P2">
+        <v>0.015766329482859</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0655726117017572</v>
+      </c>
+      <c r="T2">
+        <v>0.0668253125941503</v>
+      </c>
+      <c r="U2">
+        <v>1.10242473559879</v>
+      </c>
+      <c r="V2">
+        <v>1.12696613164062</v>
+      </c>
+      <c r="W2">
+        <v>9.483845727730234</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0.003507911853573738</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="AB2">
+        <v>0.05104440229308931</v>
+      </c>
+      <c r="AC2">
+        <v>0.03390791185357374</v>
+      </c>
+      <c r="AD2">
+        <v>0.2</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>435.7</v>
+      </c>
+      <c r="AH2">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="AI2">
+        <v>166.8</v>
+      </c>
+      <c r="AJ2">
+        <v>1674.5</v>
+      </c>
+      <c r="AK2">
+        <v>1674.5</v>
+      </c>
+      <c r="AL2">
+        <v>36.4</v>
+      </c>
+      <c r="AM2">
+        <v>1674.5</v>
+      </c>
+      <c r="AN2">
+        <v>560.1</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.05773607401378561</v>
+      </c>
+      <c r="C2">
+        <v>10219.847649836</v>
+      </c>
+      <c r="D2">
+        <v>9659.747649835996</v>
+      </c>
+      <c r="E2">
+        <v>-1674.5</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>560.1</v>
+      </c>
+      <c r="H2">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>435.7</v>
+      </c>
+      <c r="K2">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L2">
+        <v>353.5</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>353.5</v>
+      </c>
+      <c r="O2">
+        <v>70.7</v>
+      </c>
+      <c r="P2">
+        <v>282.8</v>
+      </c>
+      <c r="Q2">
+        <v>365</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.05773607401378561</v>
+      </c>
+      <c r="T2">
+        <v>0.9489007969115385</v>
+      </c>
+      <c r="U2">
+        <v>0.01970791185357374</v>
+      </c>
+      <c r="V2">
+        <v>0.2</v>
+      </c>
+      <c r="W2">
+        <v>0.01576632948285899</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.05770386516058661</v>
+      </c>
+      <c r="C3">
+        <v>10126.73242978623</v>
+      </c>
+      <c r="D3">
+        <v>9666.17542978623</v>
+      </c>
+      <c r="E3">
+        <v>-1574.957</v>
+      </c>
+      <c r="F3">
+        <v>99.54299999999999</v>
+      </c>
+      <c r="G3">
+        <v>560.1</v>
+      </c>
+      <c r="H3">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>435.7</v>
+      </c>
+      <c r="K3">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L3">
+        <v>353.5</v>
+      </c>
+      <c r="M3">
+        <v>1.96178466964029</v>
+      </c>
+      <c r="N3">
+        <v>351.5382153303597</v>
+      </c>
+      <c r="O3">
+        <v>70.30764306607195</v>
+      </c>
+      <c r="P3">
+        <v>281.2305722642878</v>
+      </c>
+      <c r="Q3">
+        <v>363.4305722642878</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.05812747663207882</v>
+      </c>
+      <c r="T3">
+        <v>0.9565686821391065</v>
+      </c>
+      <c r="U3">
+        <v>0.01970791185357374</v>
+      </c>
+      <c r="V3">
+        <v>0.2</v>
+      </c>
+      <c r="W3">
+        <v>0.01576632948285899</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>180.1930688268745</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.05767165630738764</v>
+      </c>
+      <c r="C4">
+        <v>10033.62576976671</v>
+      </c>
+      <c r="D4">
+        <v>9672.611769766712</v>
+      </c>
+      <c r="E4">
+        <v>-1475.414</v>
+      </c>
+      <c r="F4">
+        <v>199.086</v>
+      </c>
+      <c r="G4">
+        <v>560.1</v>
+      </c>
+      <c r="H4">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>435.7</v>
+      </c>
+      <c r="K4">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L4">
+        <v>353.5</v>
+      </c>
+      <c r="M4">
+        <v>3.923569339280581</v>
+      </c>
+      <c r="N4">
+        <v>349.5764306607194</v>
+      </c>
+      <c r="O4">
+        <v>69.91528613214389</v>
+      </c>
+      <c r="P4">
+        <v>279.6611445285756</v>
+      </c>
+      <c r="Q4">
+        <v>361.8611445285756</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.05852686705890864</v>
+      </c>
+      <c r="T4">
+        <v>0.9643930548202982</v>
+      </c>
+      <c r="U4">
+        <v>0.01970791185357374</v>
+      </c>
+      <c r="V4">
+        <v>0.2</v>
+      </c>
+      <c r="W4">
+        <v>0.01576632948285899</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>90.09653441343724</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.05763944745418865</v>
+      </c>
+      <c r="C5">
+        <v>9940.527686888252</v>
+      </c>
+      <c r="D5">
+        <v>9679.056686888252</v>
+      </c>
+      <c r="E5">
+        <v>-1375.871</v>
+      </c>
+      <c r="F5">
+        <v>298.629</v>
+      </c>
+      <c r="G5">
+        <v>560.1</v>
+      </c>
+      <c r="H5">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>435.7</v>
+      </c>
+      <c r="K5">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L5">
+        <v>353.5</v>
+      </c>
+      <c r="M5">
+        <v>5.885354008920871</v>
+      </c>
+      <c r="N5">
+        <v>347.6146459910791</v>
+      </c>
+      <c r="O5">
+        <v>69.52292919821582</v>
+      </c>
+      <c r="P5">
+        <v>278.0917167928633</v>
+      </c>
+      <c r="Q5">
+        <v>360.2917167928633</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.05893449233989988</v>
+      </c>
+      <c r="T5">
+        <v>0.9723787547732672</v>
+      </c>
+      <c r="U5">
+        <v>0.01970791185357374</v>
+      </c>
+      <c r="V5">
+        <v>0.2</v>
+      </c>
+      <c r="W5">
+        <v>0.01576632948285899</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>60.06435627562482</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.05760723860098968</v>
+      </c>
+      <c r="C6">
+        <v>9847.438198307265</v>
+      </c>
+      <c r="D6">
+        <v>9685.510198307265</v>
+      </c>
+      <c r="E6">
+        <v>-1276.328</v>
+      </c>
+      <c r="F6">
+        <v>398.172</v>
+      </c>
+      <c r="G6">
+        <v>560.1</v>
+      </c>
+      <c r="H6">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>435.7</v>
+      </c>
+      <c r="K6">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L6">
+        <v>353.5</v>
+      </c>
+      <c r="M6">
+        <v>7.847138678561161</v>
+      </c>
+      <c r="N6">
+        <v>345.6528613214388</v>
+      </c>
+      <c r="O6">
+        <v>69.13057226428776</v>
+      </c>
+      <c r="P6">
+        <v>276.5222890571511</v>
+      </c>
+      <c r="Q6">
+        <v>358.722289057151</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.05935060981424513</v>
+      </c>
+      <c r="T6">
+        <v>0.9805308234752566</v>
+      </c>
+      <c r="U6">
+        <v>0.01970791185357374</v>
+      </c>
+      <c r="V6">
+        <v>0.2</v>
+      </c>
+      <c r="W6">
+        <v>0.01576632948285899</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>45.04826720671861</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.05757502974779069</v>
+      </c>
+      <c r="C7">
+        <v>9754.357321225976</v>
+      </c>
+      <c r="D7">
+        <v>9691.972321225976</v>
+      </c>
+      <c r="E7">
+        <v>-1176.785</v>
+      </c>
+      <c r="F7">
+        <v>497.715</v>
+      </c>
+      <c r="G7">
+        <v>560.1</v>
+      </c>
+      <c r="H7">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>435.7</v>
+      </c>
+      <c r="K7">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L7">
+        <v>353.5</v>
+      </c>
+      <c r="M7">
+        <v>9.808923348201452</v>
+      </c>
+      <c r="N7">
+        <v>343.6910766517985</v>
+      </c>
+      <c r="O7">
+        <v>68.73821533035971</v>
+      </c>
+      <c r="P7">
+        <v>274.9528613214388</v>
+      </c>
+      <c r="Q7">
+        <v>357.1528613214388</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.05977548765647131</v>
+      </c>
+      <c r="T7">
+        <v>0.9888545146762348</v>
+      </c>
+      <c r="U7">
+        <v>0.01970791185357374</v>
+      </c>
+      <c r="V7">
+        <v>0.2</v>
+      </c>
+      <c r="W7">
+        <v>0.01576632948285899</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>36.03861376537489</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.05754282089459171</v>
+      </c>
+      <c r="C8">
+        <v>9661.285072892528</v>
+      </c>
+      <c r="D8">
+        <v>9698.443072892527</v>
+      </c>
+      <c r="E8">
+        <v>-1077.242</v>
+      </c>
+      <c r="F8">
+        <v>597.2579999999999</v>
+      </c>
+      <c r="G8">
+        <v>560.1</v>
+      </c>
+      <c r="H8">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>435.7</v>
+      </c>
+      <c r="K8">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L8">
+        <v>353.5</v>
+      </c>
+      <c r="M8">
+        <v>11.77070801784174</v>
+      </c>
+      <c r="N8">
+        <v>341.7292919821583</v>
+      </c>
+      <c r="O8">
+        <v>68.34585839643165</v>
+      </c>
+      <c r="P8">
+        <v>273.3834335857266</v>
+      </c>
+      <c r="Q8">
+        <v>355.5834335857266</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.06020940545278743</v>
+      </c>
+      <c r="T8">
+        <v>0.9973553056900001</v>
+      </c>
+      <c r="U8">
+        <v>0.01970791185357374</v>
+      </c>
+      <c r="V8">
+        <v>0.2</v>
+      </c>
+      <c r="W8">
+        <v>0.01576632948285899</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>30.03217813781241</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.05751061204139273</v>
+      </c>
+      <c r="C9">
+        <v>9568.221470601176</v>
+      </c>
+      <c r="D9">
+        <v>9704.922470601176</v>
+      </c>
+      <c r="E9">
+        <v>-977.699</v>
+      </c>
+      <c r="F9">
+        <v>696.801</v>
+      </c>
+      <c r="G9">
+        <v>560.1</v>
+      </c>
+      <c r="H9">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>435.7</v>
+      </c>
+      <c r="K9">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L9">
+        <v>353.5</v>
+      </c>
+      <c r="M9">
+        <v>13.73249268748203</v>
+      </c>
+      <c r="N9">
+        <v>339.767507312518</v>
+      </c>
+      <c r="O9">
+        <v>67.9535014625036</v>
+      </c>
+      <c r="P9">
+        <v>271.8140058500144</v>
+      </c>
+      <c r="Q9">
+        <v>354.0140058500144</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.06065265481461571</v>
+      </c>
+      <c r="T9">
+        <v>1.006038909413739</v>
+      </c>
+      <c r="U9">
+        <v>0.01970791185357374</v>
+      </c>
+      <c r="V9">
+        <v>0.2</v>
+      </c>
+      <c r="W9">
+        <v>0.01576632948285899</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>25.74186697526778</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.05747840318819376</v>
+      </c>
+      <c r="C10">
+        <v>9475.166531692408</v>
+      </c>
+      <c r="D10">
+        <v>9711.410531692407</v>
+      </c>
+      <c r="E10">
+        <v>-878.1560000000001</v>
+      </c>
+      <c r="F10">
+        <v>796.3439999999999</v>
+      </c>
+      <c r="G10">
+        <v>560.1</v>
+      </c>
+      <c r="H10">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>435.7</v>
+      </c>
+      <c r="K10">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L10">
+        <v>353.5</v>
+      </c>
+      <c r="M10">
+        <v>15.69427735712232</v>
+      </c>
+      <c r="N10">
+        <v>337.8057226428777</v>
+      </c>
+      <c r="O10">
+        <v>67.56114452857554</v>
+      </c>
+      <c r="P10">
+        <v>270.2445781143022</v>
+      </c>
+      <c r="Q10">
+        <v>352.4445781143021</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.0611055400321359</v>
+      </c>
+      <c r="T10">
+        <v>1.014911287131472</v>
+      </c>
+      <c r="U10">
+        <v>0.01970791185357374</v>
+      </c>
+      <c r="V10">
+        <v>0.2</v>
+      </c>
+      <c r="W10">
+        <v>0.01576632948285899</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>22.52413360335931</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.05744619433499477</v>
+      </c>
+      <c r="C11">
+        <v>9382.120273553124</v>
+      </c>
+      <c r="D11">
+        <v>9717.907273553124</v>
+      </c>
+      <c r="E11">
+        <v>-778.6130000000001</v>
+      </c>
+      <c r="F11">
+        <v>895.8869999999999</v>
+      </c>
+      <c r="G11">
+        <v>560.1</v>
+      </c>
+      <c r="H11">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>435.7</v>
+      </c>
+      <c r="K11">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L11">
+        <v>353.5</v>
+      </c>
+      <c r="M11">
+        <v>17.65606202676262</v>
+      </c>
+      <c r="N11">
+        <v>335.8439379732374</v>
+      </c>
+      <c r="O11">
+        <v>67.16878759464747</v>
+      </c>
+      <c r="P11">
+        <v>268.6751503785899</v>
+      </c>
+      <c r="Q11">
+        <v>350.8751503785899</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.06156837877092029</v>
+      </c>
+      <c r="T11">
+        <v>1.023978662161682</v>
+      </c>
+      <c r="U11">
+        <v>0.01970791185357374</v>
+      </c>
+      <c r="V11">
+        <v>0.2</v>
+      </c>
+      <c r="W11">
+        <v>0.01576632948285899</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>20.02145209187493</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.0574139854817958</v>
+      </c>
+      <c r="C12">
+        <v>9289.082713616775</v>
+      </c>
+      <c r="D12">
+        <v>9724.412713616775</v>
+      </c>
+      <c r="E12">
+        <v>-679.0700000000001</v>
+      </c>
+      <c r="F12">
+        <v>995.4299999999999</v>
+      </c>
+      <c r="G12">
+        <v>560.1</v>
+      </c>
+      <c r="H12">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>435.7</v>
+      </c>
+      <c r="K12">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L12">
+        <v>353.5</v>
+      </c>
+      <c r="M12">
+        <v>19.6178466964029</v>
+      </c>
+      <c r="N12">
+        <v>333.8821533035971</v>
+      </c>
+      <c r="O12">
+        <v>66.77643066071941</v>
+      </c>
+      <c r="P12">
+        <v>267.1057226428777</v>
+      </c>
+      <c r="Q12">
+        <v>349.3057226428776</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.062041502815011</v>
+      </c>
+      <c r="T12">
+        <v>1.033247534414786</v>
+      </c>
+      <c r="U12">
+        <v>0.01970791185357374</v>
+      </c>
+      <c r="V12">
+        <v>0.2</v>
+      </c>
+      <c r="W12">
+        <v>0.01576632948285899</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>18.01930688268745</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.0573817766285968</v>
+      </c>
+      <c r="C13">
+        <v>9196.05386936353</v>
+      </c>
+      <c r="D13">
+        <v>9730.926869363529</v>
+      </c>
+      <c r="E13">
+        <v>-579.527</v>
+      </c>
+      <c r="F13">
+        <v>1094.973</v>
+      </c>
+      <c r="G13">
+        <v>560.1</v>
+      </c>
+      <c r="H13">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>435.7</v>
+      </c>
+      <c r="K13">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L13">
+        <v>353.5</v>
+      </c>
+      <c r="M13">
+        <v>21.57963136604319</v>
+      </c>
+      <c r="N13">
+        <v>331.9203686339568</v>
+      </c>
+      <c r="O13">
+        <v>66.38407372679136</v>
+      </c>
+      <c r="P13">
+        <v>265.5362949071654</v>
+      </c>
+      <c r="Q13">
+        <v>347.7362949071654</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.06252525886009248</v>
+      </c>
+      <c r="T13">
+        <v>1.042724695932005</v>
+      </c>
+      <c r="U13">
+        <v>0.01970791185357374</v>
+      </c>
+      <c r="V13">
+        <v>0.2</v>
+      </c>
+      <c r="W13">
+        <v>0.01576632948285899</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>16.3811880751704</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.05734956777539783</v>
+      </c>
+      <c r="C14">
+        <v>9103.033758320416</v>
+      </c>
+      <c r="D14">
+        <v>9737.449758320416</v>
+      </c>
+      <c r="E14">
+        <v>-479.9840000000002</v>
+      </c>
+      <c r="F14">
+        <v>1194.516</v>
+      </c>
+      <c r="G14">
+        <v>560.1</v>
+      </c>
+      <c r="H14">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>435.7</v>
+      </c>
+      <c r="K14">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L14">
+        <v>353.5</v>
+      </c>
+      <c r="M14">
+        <v>23.54141603568348</v>
+      </c>
+      <c r="N14">
+        <v>329.9585839643165</v>
+      </c>
+      <c r="O14">
+        <v>65.9917167928633</v>
+      </c>
+      <c r="P14">
+        <v>263.9668671714532</v>
+      </c>
+      <c r="Q14">
+        <v>346.1668671714532</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.06302000936074403</v>
+      </c>
+      <c r="T14">
+        <v>1.052417247483706</v>
+      </c>
+      <c r="U14">
+        <v>0.01970791185357374</v>
+      </c>
+      <c r="V14">
+        <v>0.2</v>
+      </c>
+      <c r="W14">
+        <v>0.01576632948285899</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>15.01608906890621</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.05731735892219885</v>
+      </c>
+      <c r="C15">
+        <v>9010.022398061499</v>
+      </c>
+      <c r="D15">
+        <v>9743.981398061498</v>
+      </c>
+      <c r="E15">
+        <v>-380.441</v>
+      </c>
+      <c r="F15">
+        <v>1294.059</v>
+      </c>
+      <c r="G15">
+        <v>560.1</v>
+      </c>
+      <c r="H15">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>435.7</v>
+      </c>
+      <c r="K15">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L15">
+        <v>353.5</v>
+      </c>
+      <c r="M15">
+        <v>25.50320070532378</v>
+      </c>
+      <c r="N15">
+        <v>327.9967992946762</v>
+      </c>
+      <c r="O15">
+        <v>65.59935985893524</v>
+      </c>
+      <c r="P15">
+        <v>262.397439435741</v>
+      </c>
+      <c r="Q15">
+        <v>344.597439435741</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.06352613343612319</v>
+      </c>
+      <c r="T15">
+        <v>1.062332616312458</v>
+      </c>
+      <c r="U15">
+        <v>0.01970791185357374</v>
+      </c>
+      <c r="V15">
+        <v>0.2</v>
+      </c>
+      <c r="W15">
+        <v>0.01576632948285899</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>13.86100529437496</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.05728515006899987</v>
+      </c>
+      <c r="C16">
+        <v>8917.019806208029</v>
+      </c>
+      <c r="D16">
+        <v>9750.521806208029</v>
+      </c>
+      <c r="E16">
+        <v>-280.8979999999999</v>
+      </c>
+      <c r="F16">
+        <v>1393.602</v>
+      </c>
+      <c r="G16">
+        <v>560.1</v>
+      </c>
+      <c r="H16">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>435.7</v>
+      </c>
+      <c r="K16">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L16">
+        <v>353.5</v>
+      </c>
+      <c r="M16">
+        <v>27.46498537496407</v>
+      </c>
+      <c r="N16">
+        <v>326.035014625036</v>
+      </c>
+      <c r="O16">
+        <v>65.20700292500719</v>
+      </c>
+      <c r="P16">
+        <v>260.8280117000288</v>
+      </c>
+      <c r="Q16">
+        <v>343.0280117000287</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.06404402783883675</v>
+      </c>
+      <c r="T16">
+        <v>1.072478575113971</v>
+      </c>
+      <c r="U16">
+        <v>0.01970791185357374</v>
+      </c>
+      <c r="V16">
+        <v>0.2</v>
+      </c>
+      <c r="W16">
+        <v>0.01576632948285899</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>12.87093348763389</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.05725294121580088</v>
+      </c>
+      <c r="C17">
+        <v>8824.026000428597</v>
+      </c>
+      <c r="D17">
+        <v>9757.071000428597</v>
+      </c>
+      <c r="E17">
+        <v>-181.3550000000002</v>
+      </c>
+      <c r="F17">
+        <v>1493.145</v>
+      </c>
+      <c r="G17">
+        <v>560.1</v>
+      </c>
+      <c r="H17">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>435.7</v>
+      </c>
+      <c r="K17">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L17">
+        <v>353.5</v>
+      </c>
+      <c r="M17">
+        <v>29.42677004460435</v>
+      </c>
+      <c r="N17">
+        <v>324.0732299553956</v>
+      </c>
+      <c r="O17">
+        <v>64.81464599107913</v>
+      </c>
+      <c r="P17">
+        <v>259.2585839643165</v>
+      </c>
+      <c r="Q17">
+        <v>341.4585839643165</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.0645741079922024</v>
+      </c>
+      <c r="T17">
+        <v>1.082863262357873</v>
+      </c>
+      <c r="U17">
+        <v>0.01970791185357374</v>
+      </c>
+      <c r="V17">
+        <v>0.2</v>
+      </c>
+      <c r="W17">
+        <v>0.01576632948285899</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>12.01287125512496</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.0572207323626019</v>
+      </c>
+      <c r="C18">
+        <v>8731.040998439288</v>
+      </c>
+      <c r="D18">
+        <v>9763.628998439288</v>
+      </c>
+      <c r="E18">
+        <v>-81.81200000000013</v>
+      </c>
+      <c r="F18">
+        <v>1592.688</v>
+      </c>
+      <c r="G18">
+        <v>560.1</v>
+      </c>
+      <c r="H18">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>435.7</v>
+      </c>
+      <c r="K18">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L18">
+        <v>353.5</v>
+      </c>
+      <c r="M18">
+        <v>31.38855471424464</v>
+      </c>
+      <c r="N18">
+        <v>322.1114452857553</v>
+      </c>
+      <c r="O18">
+        <v>64.42228905715108</v>
+      </c>
+      <c r="P18">
+        <v>257.6891562286042</v>
+      </c>
+      <c r="Q18">
+        <v>339.8891562286042</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.06511680910160055</v>
+      </c>
+      <c r="T18">
+        <v>1.093495204059963</v>
+      </c>
+      <c r="U18">
+        <v>0.01970791185357374</v>
+      </c>
+      <c r="V18">
+        <v>0.2</v>
+      </c>
+      <c r="W18">
+        <v>0.01576632948285899</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>11.26206680167965</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.05718852350940292</v>
+      </c>
+      <c r="C19">
+        <v>8638.064818003861</v>
+      </c>
+      <c r="D19">
+        <v>9770.19581800386</v>
+      </c>
+      <c r="E19">
+        <v>17.73099999999999</v>
+      </c>
+      <c r="F19">
+        <v>1692.231</v>
+      </c>
+      <c r="G19">
+        <v>560.1</v>
+      </c>
+      <c r="H19">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>435.7</v>
+      </c>
+      <c r="K19">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L19">
+        <v>353.5</v>
+      </c>
+      <c r="M19">
+        <v>33.35033938388494</v>
+      </c>
+      <c r="N19">
+        <v>320.1496606161151</v>
+      </c>
+      <c r="O19">
+        <v>64.02993212322302</v>
+      </c>
+      <c r="P19">
+        <v>256.119728492892</v>
+      </c>
+      <c r="Q19">
+        <v>338.319728492892</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.06567258734616493</v>
+      </c>
+      <c r="T19">
+        <v>1.104383337128369</v>
+      </c>
+      <c r="U19">
+        <v>0.01970791185357374</v>
+      </c>
+      <c r="V19">
+        <v>0.2</v>
+      </c>
+      <c r="W19">
+        <v>0.01576632948285899</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>10.59959228393379</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.05715631465620394</v>
+      </c>
+      <c r="C20">
+        <v>8545.09747693389</v>
+      </c>
+      <c r="D20">
+        <v>9776.771476933889</v>
+      </c>
+      <c r="E20">
+        <v>117.2739999999999</v>
+      </c>
+      <c r="F20">
+        <v>1791.774</v>
+      </c>
+      <c r="G20">
+        <v>560.1</v>
+      </c>
+      <c r="H20">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>435.7</v>
+      </c>
+      <c r="K20">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L20">
+        <v>353.5</v>
+      </c>
+      <c r="M20">
+        <v>35.31212405352523</v>
+      </c>
+      <c r="N20">
+        <v>318.1878759464748</v>
+      </c>
+      <c r="O20">
+        <v>63.63757518929496</v>
+      </c>
+      <c r="P20">
+        <v>254.5503007571798</v>
+      </c>
+      <c r="Q20">
+        <v>336.7503007571798</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.0662419211576699</v>
+      </c>
+      <c r="T20">
+        <v>1.115537034417955</v>
+      </c>
+      <c r="U20">
+        <v>0.01970791185357374</v>
+      </c>
+      <c r="V20">
+        <v>0.2</v>
+      </c>
+      <c r="W20">
+        <v>0.01576632948285899</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>10.01072604593747</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.05712410580300496</v>
+      </c>
+      <c r="C21">
+        <v>8452.138993088936</v>
+      </c>
+      <c r="D21">
+        <v>9783.355993088935</v>
+      </c>
+      <c r="E21">
+        <v>216.8169999999998</v>
+      </c>
+      <c r="F21">
+        <v>1891.317</v>
+      </c>
+      <c r="G21">
+        <v>560.1</v>
+      </c>
+      <c r="H21">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>435.7</v>
+      </c>
+      <c r="K21">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L21">
+        <v>353.5</v>
+      </c>
+      <c r="M21">
+        <v>37.27390872316552</v>
+      </c>
+      <c r="N21">
+        <v>316.2260912768345</v>
+      </c>
+      <c r="O21">
+        <v>63.2452182553669</v>
+      </c>
+      <c r="P21">
+        <v>252.9808730214676</v>
+      </c>
+      <c r="Q21">
+        <v>335.1808730214676</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.06682531259415031</v>
+      </c>
+      <c r="T21">
+        <v>1.126966131640617</v>
+      </c>
+      <c r="U21">
+        <v>0.01970791185357374</v>
+      </c>
+      <c r="V21">
+        <v>0.2</v>
+      </c>
+      <c r="W21">
+        <v>0.01576632948285899</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>9.483845727730234</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.05734789694980599</v>
+      </c>
+      <c r="C22">
+        <v>8307.028370024324</v>
+      </c>
+      <c r="D22">
+        <v>9737.788370024324</v>
+      </c>
+      <c r="E22">
+        <v>316.3599999999999</v>
+      </c>
+      <c r="F22">
+        <v>1990.86</v>
+      </c>
+      <c r="G22">
+        <v>560.1</v>
+      </c>
+      <c r="H22">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>435.7</v>
+      </c>
+      <c r="K22">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L22">
+        <v>353.5</v>
+      </c>
+      <c r="M22">
+        <v>42.42106939280581</v>
+      </c>
+      <c r="N22">
+        <v>311.0789306071942</v>
+      </c>
+      <c r="O22">
+        <v>62.21578612143884</v>
+      </c>
+      <c r="P22">
+        <v>248.8631444857554</v>
+      </c>
+      <c r="Q22">
+        <v>331.0631444857553</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.06742328881654273</v>
+      </c>
+      <c r="T22">
+        <v>1.138680956293846</v>
+      </c>
+      <c r="U22">
+        <v>0.02130791185357374</v>
+      </c>
+      <c r="V22">
+        <v>0.2</v>
+      </c>
+      <c r="W22">
+        <v>0.01704632948285899</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>8.333123258320075</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.057328488096607</v>
+      </c>
+      <c r="C23">
+        <v>8211.420520024809</v>
+      </c>
+      <c r="D23">
+        <v>9741.723520024809</v>
+      </c>
+      <c r="E23">
+        <v>415.9029999999998</v>
+      </c>
+      <c r="F23">
+        <v>2090.403</v>
+      </c>
+      <c r="G23">
+        <v>560.1</v>
+      </c>
+      <c r="H23">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>435.7</v>
+      </c>
+      <c r="K23">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L23">
+        <v>353.5</v>
+      </c>
+      <c r="M23">
+        <v>44.5421228624461</v>
+      </c>
+      <c r="N23">
+        <v>308.9578771375539</v>
+      </c>
+      <c r="O23">
+        <v>61.79157542751079</v>
+      </c>
+      <c r="P23">
+        <v>247.1663017100431</v>
+      </c>
+      <c r="Q23">
+        <v>329.3663017100431</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.06803640367747672</v>
+      </c>
+      <c r="T23">
+        <v>1.150692358786397</v>
+      </c>
+      <c r="U23">
+        <v>0.02130791185357374</v>
+      </c>
+      <c r="V23">
+        <v>0.2</v>
+      </c>
+      <c r="W23">
+        <v>0.01704632948285899</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>7.936307865066739</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.05730907924340803</v>
+      </c>
+      <c r="C24">
+        <v>8115.815851787986</v>
+      </c>
+      <c r="D24">
+        <v>9745.661851787985</v>
+      </c>
+      <c r="E24">
+        <v>515.4459999999999</v>
+      </c>
+      <c r="F24">
+        <v>2189.946</v>
+      </c>
+      <c r="G24">
+        <v>560.1</v>
+      </c>
+      <c r="H24">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>435.7</v>
+      </c>
+      <c r="K24">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L24">
+        <v>353.5</v>
+      </c>
+      <c r="M24">
+        <v>46.66317633208639</v>
+      </c>
+      <c r="N24">
+        <v>306.8368236679136</v>
+      </c>
+      <c r="O24">
+        <v>61.36736473358273</v>
+      </c>
+      <c r="P24">
+        <v>245.4694589343309</v>
+      </c>
+      <c r="Q24">
+        <v>327.6694589343309</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.06866523943228083</v>
+      </c>
+      <c r="T24">
+        <v>1.163011745958245</v>
+      </c>
+      <c r="U24">
+        <v>0.02130791185357374</v>
+      </c>
+      <c r="V24">
+        <v>0.2</v>
+      </c>
+      <c r="W24">
+        <v>0.01704632948285899</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>7.575566598472796</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.05728967039020904</v>
+      </c>
+      <c r="C25">
+        <v>8020.214369174337</v>
+      </c>
+      <c r="D25">
+        <v>9749.603369174336</v>
+      </c>
+      <c r="E25">
+        <v>614.989</v>
+      </c>
+      <c r="F25">
+        <v>2289.489</v>
+      </c>
+      <c r="G25">
+        <v>560.1</v>
+      </c>
+      <c r="H25">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>435.7</v>
+      </c>
+      <c r="K25">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L25">
+        <v>353.5</v>
+      </c>
+      <c r="M25">
+        <v>48.78422980172669</v>
+      </c>
+      <c r="N25">
+        <v>304.7157701982733</v>
+      </c>
+      <c r="O25">
+        <v>60.94315403965467</v>
+      </c>
+      <c r="P25">
+        <v>243.7726161586187</v>
+      </c>
+      <c r="Q25">
+        <v>325.9726161586186</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.0693104085833136</v>
+      </c>
+      <c r="T25">
+        <v>1.175651117212478</v>
+      </c>
+      <c r="U25">
+        <v>0.02130791185357374</v>
+      </c>
+      <c r="V25">
+        <v>0.2</v>
+      </c>
+      <c r="W25">
+        <v>0.01704632948285899</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>7.24619413766963</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.05769266153701005</v>
+      </c>
+      <c r="C26">
+        <v>7839.481293699904</v>
+      </c>
+      <c r="D26">
+        <v>9668.413293699903</v>
+      </c>
+      <c r="E26">
+        <v>714.5319999999997</v>
+      </c>
+      <c r="F26">
+        <v>2389.032</v>
+      </c>
+      <c r="G26">
+        <v>560.1</v>
+      </c>
+      <c r="H26">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>435.7</v>
+      </c>
+      <c r="K26">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L26">
+        <v>353.5</v>
+      </c>
+      <c r="M26">
+        <v>56.16115367136697</v>
+      </c>
+      <c r="N26">
+        <v>297.3388463286331</v>
+      </c>
+      <c r="O26">
+        <v>59.46776926572662</v>
+      </c>
+      <c r="P26">
+        <v>237.8710770629064</v>
+      </c>
+      <c r="Q26">
+        <v>320.0710770629064</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.06997255586989985</v>
+      </c>
+      <c r="T26">
+        <v>1.188623103499717</v>
+      </c>
+      <c r="U26">
+        <v>0.02350791185357374</v>
+      </c>
+      <c r="V26">
+        <v>0.2</v>
+      </c>
+      <c r="W26">
+        <v>0.01880632948285899</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>6.294386366571871</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.05769085268381108</v>
+      </c>
+      <c r="C27">
+        <v>7740.299699613323</v>
+      </c>
+      <c r="D27">
+        <v>9668.774699613323</v>
+      </c>
+      <c r="E27">
+        <v>814.0749999999998</v>
+      </c>
+      <c r="F27">
+        <v>2488.575</v>
+      </c>
+      <c r="G27">
+        <v>560.1</v>
+      </c>
+      <c r="H27">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>435.7</v>
+      </c>
+      <c r="K27">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L27">
+        <v>353.5</v>
+      </c>
+      <c r="M27">
+        <v>58.50120174100726</v>
+      </c>
+      <c r="N27">
+        <v>294.9987982589927</v>
+      </c>
+      <c r="O27">
+        <v>58.99975965179855</v>
+      </c>
+      <c r="P27">
+        <v>235.9990386071942</v>
+      </c>
+      <c r="Q27">
+        <v>318.1990386071942</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.07065236041746177</v>
+      </c>
+      <c r="T27">
+        <v>1.201941009421282</v>
+      </c>
+      <c r="U27">
+        <v>0.02350791185357374</v>
+      </c>
+      <c r="V27">
+        <v>0.2</v>
+      </c>
+      <c r="W27">
+        <v>0.01880632948285899</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>6.042610911908995</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.05768904383061209</v>
+      </c>
+      <c r="C28">
+        <v>7641.118132546506</v>
+      </c>
+      <c r="D28">
+        <v>9669.136132546506</v>
+      </c>
+      <c r="E28">
+        <v>913.6179999999999</v>
+      </c>
+      <c r="F28">
+        <v>2588.118</v>
+      </c>
+      <c r="G28">
+        <v>560.1</v>
+      </c>
+      <c r="H28">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>435.7</v>
+      </c>
+      <c r="K28">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L28">
+        <v>353.5</v>
+      </c>
+      <c r="M28">
+        <v>60.84124981064755</v>
+      </c>
+      <c r="N28">
+        <v>292.6587501893524</v>
+      </c>
+      <c r="O28">
+        <v>58.53175003787049</v>
+      </c>
+      <c r="P28">
+        <v>234.1270001514819</v>
+      </c>
+      <c r="Q28">
+        <v>316.3270001514819</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.07135053806090372</v>
+      </c>
+      <c r="T28">
+        <v>1.215618858746133</v>
+      </c>
+      <c r="U28">
+        <v>0.02350791185357374</v>
+      </c>
+      <c r="V28">
+        <v>0.2</v>
+      </c>
+      <c r="W28">
+        <v>0.01880632948285899</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>5.810202799912495</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.05792483497741312</v>
+      </c>
+      <c r="C29">
+        <v>7494.68763774416</v>
+      </c>
+      <c r="D29">
+        <v>9622.24863774416</v>
+      </c>
+      <c r="E29">
+        <v>1013.161</v>
+      </c>
+      <c r="F29">
+        <v>2687.661</v>
+      </c>
+      <c r="G29">
+        <v>560.1</v>
+      </c>
+      <c r="H29">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>435.7</v>
+      </c>
+      <c r="K29">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L29">
+        <v>353.5</v>
+      </c>
+      <c r="M29">
+        <v>66.13772498028784</v>
+      </c>
+      <c r="N29">
+        <v>287.3622750197122</v>
+      </c>
+      <c r="O29">
+        <v>57.47245500394244</v>
+      </c>
+      <c r="P29">
+        <v>229.8898200157697</v>
+      </c>
+      <c r="Q29">
+        <v>312.0898200157698</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.07206784385896053</v>
+      </c>
+      <c r="T29">
+        <v>1.229671443668925</v>
+      </c>
+      <c r="U29">
+        <v>0.02460791185357374</v>
+      </c>
+      <c r="V29">
+        <v>0.2</v>
+      </c>
+      <c r="W29">
+        <v>0.01968632948285899</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>5.344907163126033</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.05793182612421413</v>
+      </c>
+      <c r="C30">
+        <v>7393.76137583229</v>
+      </c>
+      <c r="D30">
+        <v>9620.865375832289</v>
+      </c>
+      <c r="E30">
+        <v>1112.704</v>
+      </c>
+      <c r="F30">
+        <v>2787.204</v>
+      </c>
+      <c r="G30">
+        <v>560.1</v>
+      </c>
+      <c r="H30">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>435.7</v>
+      </c>
+      <c r="K30">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L30">
+        <v>353.5</v>
+      </c>
+      <c r="M30">
+        <v>68.58727034992813</v>
+      </c>
+      <c r="N30">
+        <v>284.9127296500719</v>
+      </c>
+      <c r="O30">
+        <v>56.98254593001437</v>
+      </c>
+      <c r="P30">
+        <v>227.9301837200575</v>
+      </c>
+      <c r="Q30">
+        <v>310.1301837200575</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.07280507481807447</v>
+      </c>
+      <c r="T30">
+        <v>1.244114378172906</v>
+      </c>
+      <c r="U30">
+        <v>0.02460791185357374</v>
+      </c>
+      <c r="V30">
+        <v>0.2</v>
+      </c>
+      <c r="W30">
+        <v>0.01968632948285899</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>5.154017621585817</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.05793881727101514</v>
+      </c>
+      <c r="C31">
+        <v>7292.835511569363</v>
+      </c>
+      <c r="D31">
+        <v>9619.482511569362</v>
+      </c>
+      <c r="E31">
+        <v>1212.246999999999</v>
+      </c>
+      <c r="F31">
+        <v>2886.746999999999</v>
+      </c>
+      <c r="G31">
+        <v>560.1</v>
+      </c>
+      <c r="H31">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>435.7</v>
+      </c>
+      <c r="K31">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L31">
+        <v>353.5</v>
+      </c>
+      <c r="M31">
+        <v>71.03681571956841</v>
+      </c>
+      <c r="N31">
+        <v>282.4631842804316</v>
+      </c>
+      <c r="O31">
+        <v>56.49263685608633</v>
+      </c>
+      <c r="P31">
+        <v>225.9705474243453</v>
+      </c>
+      <c r="Q31">
+        <v>308.1705474243453</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.07356307284645922</v>
+      </c>
+      <c r="T31">
+        <v>1.258964155902351</v>
+      </c>
+      <c r="U31">
+        <v>0.02460791185357374</v>
+      </c>
+      <c r="V31">
+        <v>0.2</v>
+      </c>
+      <c r="W31">
+        <v>0.01968632948285899</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>4.976292876013893</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.05794580841781618</v>
+      </c>
+      <c r="C32">
+        <v>7191.910044783925</v>
+      </c>
+      <c r="D32">
+        <v>9618.100044783923</v>
+      </c>
+      <c r="E32">
+        <v>1311.79</v>
+      </c>
+      <c r="F32">
+        <v>2986.29</v>
+      </c>
+      <c r="G32">
+        <v>560.1</v>
+      </c>
+      <c r="H32">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>435.7</v>
+      </c>
+      <c r="K32">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L32">
+        <v>353.5</v>
+      </c>
+      <c r="M32">
+        <v>73.4863610892087</v>
+      </c>
+      <c r="N32">
+        <v>280.0136389107913</v>
+      </c>
+      <c r="O32">
+        <v>56.00272778215827</v>
+      </c>
+      <c r="P32">
+        <v>224.010911128633</v>
+      </c>
+      <c r="Q32">
+        <v>306.210911128633</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.07434272796136926</v>
+      </c>
+      <c r="T32">
+        <v>1.274238212995495</v>
+      </c>
+      <c r="U32">
+        <v>0.02460791185357374</v>
+      </c>
+      <c r="V32">
+        <v>0.2</v>
+      </c>
+      <c r="W32">
+        <v>0.01968632948285899</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>4.81041644681343</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.05795279956461719</v>
+      </c>
+      <c r="C33">
+        <v>7090.984975304643</v>
+      </c>
+      <c r="D33">
+        <v>9616.717975304642</v>
+      </c>
+      <c r="E33">
+        <v>1411.333</v>
+      </c>
+      <c r="F33">
+        <v>3085.833</v>
+      </c>
+      <c r="G33">
+        <v>560.1</v>
+      </c>
+      <c r="H33">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>435.7</v>
+      </c>
+      <c r="K33">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L33">
+        <v>353.5</v>
+      </c>
+      <c r="M33">
+        <v>75.93590645884899</v>
+      </c>
+      <c r="N33">
+        <v>277.564093541151</v>
+      </c>
+      <c r="O33">
+        <v>55.51281870823021</v>
+      </c>
+      <c r="P33">
+        <v>222.0512748329208</v>
+      </c>
+      <c r="Q33">
+        <v>304.2512748329208</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.07514498177526217</v>
+      </c>
+      <c r="T33">
+        <v>1.289954996381193</v>
+      </c>
+      <c r="U33">
+        <v>0.02460791185357374</v>
+      </c>
+      <c r="V33">
+        <v>0.2</v>
+      </c>
+      <c r="W33">
+        <v>0.01968632948285899</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>4.655241722722674</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.05795979071141821</v>
+      </c>
+      <c r="C34">
+        <v>6990.060302960261</v>
+      </c>
+      <c r="D34">
+        <v>9615.336302960261</v>
+      </c>
+      <c r="E34">
+        <v>1510.876</v>
+      </c>
+      <c r="F34">
+        <v>3185.376</v>
+      </c>
+      <c r="G34">
+        <v>560.1</v>
+      </c>
+      <c r="H34">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>435.7</v>
+      </c>
+      <c r="K34">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L34">
+        <v>353.5</v>
+      </c>
+      <c r="M34">
+        <v>78.38545182848928</v>
+      </c>
+      <c r="N34">
+        <v>275.1145481715107</v>
+      </c>
+      <c r="O34">
+        <v>55.02290963430215</v>
+      </c>
+      <c r="P34">
+        <v>220.0916385372086</v>
+      </c>
+      <c r="Q34">
+        <v>302.2916385372085</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.07597083128956372</v>
+      </c>
+      <c r="T34">
+        <v>1.306134038101765</v>
+      </c>
+      <c r="U34">
+        <v>0.02460791185357374</v>
+      </c>
+      <c r="V34">
+        <v>0.2</v>
+      </c>
+      <c r="W34">
+        <v>0.01968632948285899</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>4.50976541888759</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.05796678185821922</v>
+      </c>
+      <c r="C35">
+        <v>6889.136027579632</v>
+      </c>
+      <c r="D35">
+        <v>9613.955027579632</v>
+      </c>
+      <c r="E35">
+        <v>1610.419</v>
+      </c>
+      <c r="F35">
+        <v>3284.919</v>
+      </c>
+      <c r="G35">
+        <v>560.1</v>
+      </c>
+      <c r="H35">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>435.7</v>
+      </c>
+      <c r="K35">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L35">
+        <v>353.5</v>
+      </c>
+      <c r="M35">
+        <v>80.83499719812959</v>
+      </c>
+      <c r="N35">
+        <v>272.6650028018704</v>
+      </c>
+      <c r="O35">
+        <v>54.53300056037408</v>
+      </c>
+      <c r="P35">
+        <v>218.1320022414963</v>
+      </c>
+      <c r="Q35">
+        <v>300.3320022414963</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.07682133302817278</v>
+      </c>
+      <c r="T35">
+        <v>1.322796036291608</v>
+      </c>
+      <c r="U35">
+        <v>0.02460791185357374</v>
+      </c>
+      <c r="V35">
+        <v>0.2</v>
+      </c>
+      <c r="W35">
+        <v>0.01968632948285899</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>4.37310586073948</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.05838177300502023</v>
+      </c>
+      <c r="C36">
+        <v>6708.306106225335</v>
+      </c>
+      <c r="D36">
+        <v>9532.668106225334</v>
+      </c>
+      <c r="E36">
+        <v>1709.962</v>
+      </c>
+      <c r="F36">
+        <v>3384.462</v>
+      </c>
+      <c r="G36">
+        <v>560.1</v>
+      </c>
+      <c r="H36">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>435.7</v>
+      </c>
+      <c r="K36">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L36">
+        <v>353.5</v>
+      </c>
+      <c r="M36">
+        <v>88.36123556776988</v>
+      </c>
+      <c r="N36">
+        <v>265.1387644322301</v>
+      </c>
+      <c r="O36">
+        <v>53.02775288644602</v>
+      </c>
+      <c r="P36">
+        <v>212.1110115457841</v>
+      </c>
+      <c r="Q36">
+        <v>294.3110115457841</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.07769760754673967</v>
+      </c>
+      <c r="T36">
+        <v>1.339962943517506</v>
+      </c>
+      <c r="U36">
+        <v>0.02610791185357374</v>
+      </c>
+      <c r="V36">
+        <v>0.2</v>
+      </c>
+      <c r="W36">
+        <v>0.02088632948285899</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>4.000623098223635</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.05840076415182126</v>
+      </c>
+      <c r="C37">
+        <v>6605.076069932967</v>
+      </c>
+      <c r="D37">
+        <v>9528.981069932966</v>
+      </c>
+      <c r="E37">
+        <v>1809.505</v>
+      </c>
+      <c r="F37">
+        <v>3484.005</v>
+      </c>
+      <c r="G37">
+        <v>560.1</v>
+      </c>
+      <c r="H37">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>435.7</v>
+      </c>
+      <c r="K37">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L37">
+        <v>353.5</v>
+      </c>
+      <c r="M37">
+        <v>90.96009543741017</v>
+      </c>
+      <c r="N37">
+        <v>262.5399045625898</v>
+      </c>
+      <c r="O37">
+        <v>52.50798091251797</v>
+      </c>
+      <c r="P37">
+        <v>210.0319236500719</v>
+      </c>
+      <c r="Q37">
+        <v>292.2319236500718</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.07860084435818557</v>
+      </c>
+      <c r="T37">
+        <v>1.357658063273432</v>
+      </c>
+      <c r="U37">
+        <v>0.02610791185357374</v>
+      </c>
+      <c r="V37">
+        <v>0.2</v>
+      </c>
+      <c r="W37">
+        <v>0.02088632948285899</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>3.886319581131531</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.05841975529862228</v>
+      </c>
+      <c r="C38">
+        <v>6501.848884674652</v>
+      </c>
+      <c r="D38">
+        <v>9525.296884674652</v>
+      </c>
+      <c r="E38">
+        <v>1909.048</v>
+      </c>
+      <c r="F38">
+        <v>3583.548</v>
+      </c>
+      <c r="G38">
+        <v>560.1</v>
+      </c>
+      <c r="H38">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>435.7</v>
+      </c>
+      <c r="K38">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L38">
+        <v>353.5</v>
+      </c>
+      <c r="M38">
+        <v>93.55895530705045</v>
+      </c>
+      <c r="N38">
+        <v>259.9410446929496</v>
+      </c>
+      <c r="O38">
+        <v>51.98820893858991</v>
+      </c>
+      <c r="P38">
+        <v>207.9528357543597</v>
+      </c>
+      <c r="Q38">
+        <v>290.1528357543597</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.07953230731998913</v>
+      </c>
+      <c r="T38">
+        <v>1.375906155521731</v>
+      </c>
+      <c r="U38">
+        <v>0.02610791185357374</v>
+      </c>
+      <c r="V38">
+        <v>0.2</v>
+      </c>
+      <c r="W38">
+        <v>0.02088632948285899</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>3.778366259433434</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.0584387464454233</v>
+      </c>
+      <c r="C39">
+        <v>6398.624547144784</v>
+      </c>
+      <c r="D39">
+        <v>9521.615547144784</v>
+      </c>
+      <c r="E39">
+        <v>2008.591</v>
+      </c>
+      <c r="F39">
+        <v>3683.091</v>
+      </c>
+      <c r="G39">
+        <v>560.1</v>
+      </c>
+      <c r="H39">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>435.7</v>
+      </c>
+      <c r="K39">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L39">
+        <v>353.5</v>
+      </c>
+      <c r="M39">
+        <v>96.15781517669075</v>
+      </c>
+      <c r="N39">
+        <v>257.3421848233093</v>
+      </c>
+      <c r="O39">
+        <v>51.46843696466185</v>
+      </c>
+      <c r="P39">
+        <v>205.8737478586474</v>
+      </c>
+      <c r="Q39">
+        <v>288.0737478586474</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.08049334053454837</v>
+      </c>
+      <c r="T39">
+        <v>1.394733552285849</v>
+      </c>
+      <c r="U39">
+        <v>0.02610791185357374</v>
+      </c>
+      <c r="V39">
+        <v>0.2</v>
+      </c>
+      <c r="W39">
+        <v>0.02088632948285899</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>3.676248252421719</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.05845773759222431</v>
+      </c>
+      <c r="C40">
+        <v>6295.403054042872</v>
+      </c>
+      <c r="D40">
+        <v>9517.937054042872</v>
+      </c>
+      <c r="E40">
+        <v>2108.134</v>
+      </c>
+      <c r="F40">
+        <v>3782.634</v>
+      </c>
+      <c r="G40">
+        <v>560.1</v>
+      </c>
+      <c r="H40">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>435.7</v>
+      </c>
+      <c r="K40">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L40">
+        <v>353.5</v>
+      </c>
+      <c r="M40">
+        <v>98.75667504633103</v>
+      </c>
+      <c r="N40">
+        <v>254.743324953669</v>
+      </c>
+      <c r="O40">
+        <v>50.9486649907338</v>
+      </c>
+      <c r="P40">
+        <v>203.7946599629352</v>
+      </c>
+      <c r="Q40">
+        <v>285.9946599629352</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.08148537482054499</v>
+      </c>
+      <c r="T40">
+        <v>1.414168284429454</v>
+      </c>
+      <c r="U40">
+        <v>0.02610791185357374</v>
+      </c>
+      <c r="V40">
+        <v>0.2</v>
+      </c>
+      <c r="W40">
+        <v>0.02088632948285899</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>3.57950487735799</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.05847672873902533</v>
+      </c>
+      <c r="C41">
+        <v>6192.184402073513</v>
+      </c>
+      <c r="D41">
+        <v>9514.261402073513</v>
+      </c>
+      <c r="E41">
+        <v>2207.677</v>
+      </c>
+      <c r="F41">
+        <v>3882.177</v>
+      </c>
+      <c r="G41">
+        <v>560.1</v>
+      </c>
+      <c r="H41">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>435.7</v>
+      </c>
+      <c r="K41">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L41">
+        <v>353.5</v>
+      </c>
+      <c r="M41">
+        <v>101.3555349159713</v>
+      </c>
+      <c r="N41">
+        <v>252.1444650840287</v>
+      </c>
+      <c r="O41">
+        <v>50.42889301680574</v>
+      </c>
+      <c r="P41">
+        <v>201.715572067223</v>
+      </c>
+      <c r="Q41">
+        <v>283.9155720672229</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.0825099348208366</v>
+      </c>
+      <c r="T41">
+        <v>1.434240220905637</v>
+      </c>
+      <c r="U41">
+        <v>0.02610791185357374</v>
+      </c>
+      <c r="V41">
+        <v>0.2</v>
+      </c>
+      <c r="W41">
+        <v>0.02088632948285899</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>3.487722701015477</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.05849571988582636</v>
+      </c>
+      <c r="C42">
+        <v>6088.968587946401</v>
+      </c>
+      <c r="D42">
+        <v>9510.5885879464</v>
+      </c>
+      <c r="E42">
+        <v>2307.22</v>
+      </c>
+      <c r="F42">
+        <v>3981.72</v>
+      </c>
+      <c r="G42">
+        <v>560.1</v>
+      </c>
+      <c r="H42">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>435.7</v>
+      </c>
+      <c r="K42">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L42">
+        <v>353.5</v>
+      </c>
+      <c r="M42">
+        <v>103.9543947856116</v>
+      </c>
+      <c r="N42">
+        <v>249.5456052143884</v>
+      </c>
+      <c r="O42">
+        <v>49.90912104287768</v>
+      </c>
+      <c r="P42">
+        <v>199.6364841715107</v>
+      </c>
+      <c r="Q42">
+        <v>281.8364841715107</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.08356864682113793</v>
+      </c>
+      <c r="T42">
+        <v>1.454981221931026</v>
+      </c>
+      <c r="U42">
+        <v>0.02610791185357374</v>
+      </c>
+      <c r="V42">
+        <v>0.2</v>
+      </c>
+      <c r="W42">
+        <v>0.02088632948285899</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>3.40052963349009</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.05851471103262738</v>
+      </c>
+      <c r="C43">
+        <v>5985.755608376307</v>
+      </c>
+      <c r="D43">
+        <v>9506.918608376307</v>
+      </c>
+      <c r="E43">
+        <v>2406.763</v>
+      </c>
+      <c r="F43">
+        <v>4081.263</v>
+      </c>
+      <c r="G43">
+        <v>560.1</v>
+      </c>
+      <c r="H43">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>435.7</v>
+      </c>
+      <c r="K43">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L43">
+        <v>353.5</v>
+      </c>
+      <c r="M43">
+        <v>106.5532546552519</v>
+      </c>
+      <c r="N43">
+        <v>246.9467453447481</v>
+      </c>
+      <c r="O43">
+        <v>49.38934906894962</v>
+      </c>
+      <c r="P43">
+        <v>197.5573962757985</v>
+      </c>
+      <c r="Q43">
+        <v>279.7573962757984</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.08466324736382236</v>
+      </c>
+      <c r="T43">
+        <v>1.476425307736936</v>
+      </c>
+      <c r="U43">
+        <v>0.02610791185357374</v>
+      </c>
+      <c r="V43">
+        <v>0.2</v>
+      </c>
+      <c r="W43">
+        <v>0.02088632948285899</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>3.317589886331795</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.05853370217942839</v>
+      </c>
+      <c r="C44">
+        <v>5882.545460083074</v>
+      </c>
+      <c r="D44">
+        <v>9503.251460083073</v>
+      </c>
+      <c r="E44">
+        <v>2506.306</v>
+      </c>
+      <c r="F44">
+        <v>4180.806</v>
+      </c>
+      <c r="G44">
+        <v>560.1</v>
+      </c>
+      <c r="H44">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>435.7</v>
+      </c>
+      <c r="K44">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L44">
+        <v>353.5</v>
+      </c>
+      <c r="M44">
+        <v>109.1521145248922</v>
+      </c>
+      <c r="N44">
+        <v>244.3478854751078</v>
+      </c>
+      <c r="O44">
+        <v>48.86957709502157</v>
+      </c>
+      <c r="P44">
+        <v>195.4783083800863</v>
+      </c>
+      <c r="Q44">
+        <v>277.6783083800863</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.08579559275280622</v>
+      </c>
+      <c r="T44">
+        <v>1.498608844777533</v>
+      </c>
+      <c r="U44">
+        <v>0.02610791185357374</v>
+      </c>
+      <c r="V44">
+        <v>0.2</v>
+      </c>
+      <c r="W44">
+        <v>0.02088632948285899</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>3.238599650942943</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.05855269332622942</v>
+      </c>
+      <c r="C45">
+        <v>5779.338139791588</v>
+      </c>
+      <c r="D45">
+        <v>9499.587139791587</v>
+      </c>
+      <c r="E45">
+        <v>2605.848999999999</v>
+      </c>
+      <c r="F45">
+        <v>4280.348999999999</v>
+      </c>
+      <c r="G45">
+        <v>560.1</v>
+      </c>
+      <c r="H45">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>435.7</v>
+      </c>
+      <c r="K45">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L45">
+        <v>353.5</v>
+      </c>
+      <c r="M45">
+        <v>111.7509743945325</v>
+      </c>
+      <c r="N45">
+        <v>241.7490256054675</v>
+      </c>
+      <c r="O45">
+        <v>48.34980512109351</v>
+      </c>
+      <c r="P45">
+        <v>193.399220484374</v>
+      </c>
+      <c r="Q45">
+        <v>275.599220484374</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.08696766955894746</v>
+      </c>
+      <c r="T45">
+        <v>1.521570751538853</v>
+      </c>
+      <c r="U45">
+        <v>0.02610791185357374</v>
+      </c>
+      <c r="V45">
+        <v>0.2</v>
+      </c>
+      <c r="W45">
+        <v>0.02088632948285899</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>3.163283379990782</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.05857168447303043</v>
+      </c>
+      <c r="C46">
+        <v>5676.13364423181</v>
+      </c>
+      <c r="D46">
+        <v>9495.925644231809</v>
+      </c>
+      <c r="E46">
+        <v>2705.392</v>
+      </c>
+      <c r="F46">
+        <v>4379.892</v>
+      </c>
+      <c r="G46">
+        <v>560.1</v>
+      </c>
+      <c r="H46">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>435.7</v>
+      </c>
+      <c r="K46">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L46">
+        <v>353.5</v>
+      </c>
+      <c r="M46">
+        <v>114.3498342641728</v>
+      </c>
+      <c r="N46">
+        <v>239.1501657358272</v>
+      </c>
+      <c r="O46">
+        <v>47.83003314716544</v>
+      </c>
+      <c r="P46">
+        <v>191.3201325886618</v>
+      </c>
+      <c r="Q46">
+        <v>273.5201325886618</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.08818160625102227</v>
+      </c>
+      <c r="T46">
+        <v>1.545352726398791</v>
+      </c>
+      <c r="U46">
+        <v>0.02610791185357374</v>
+      </c>
+      <c r="V46">
+        <v>0.2</v>
+      </c>
+      <c r="W46">
+        <v>0.02088632948285899</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>3.091390575900081</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.05859067561983145</v>
+      </c>
+      <c r="C47">
+        <v>5572.931970138721</v>
+      </c>
+      <c r="D47">
+        <v>9492.26697013872</v>
+      </c>
+      <c r="E47">
+        <v>2804.934999999999</v>
+      </c>
+      <c r="F47">
+        <v>4479.434999999999</v>
+      </c>
+      <c r="G47">
+        <v>560.1</v>
+      </c>
+      <c r="H47">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>435.7</v>
+      </c>
+      <c r="K47">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L47">
+        <v>353.5</v>
+      </c>
+      <c r="M47">
+        <v>116.9486941338131</v>
+      </c>
+      <c r="N47">
+        <v>236.5513058661869</v>
+      </c>
+      <c r="O47">
+        <v>47.31026117323739</v>
+      </c>
+      <c r="P47">
+        <v>189.2410446929495</v>
+      </c>
+      <c r="Q47">
+        <v>271.4410446929495</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.08943968609553618</v>
+      </c>
+      <c r="T47">
+        <v>1.569999500344545</v>
+      </c>
+      <c r="U47">
+        <v>0.02610791185357374</v>
+      </c>
+      <c r="V47">
+        <v>0.2</v>
+      </c>
+      <c r="W47">
+        <v>0.02088632948285899</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>3.022693007546747</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.06000806676663248</v>
+      </c>
+      <c r="C48">
+        <v>5208.061261463387</v>
+      </c>
+      <c r="D48">
+        <v>9226.939261463387</v>
+      </c>
+      <c r="E48">
+        <v>2904.478</v>
+      </c>
+      <c r="F48">
+        <v>4578.978</v>
+      </c>
+      <c r="G48">
+        <v>560.1</v>
+      </c>
+      <c r="H48">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>435.7</v>
+      </c>
+      <c r="K48">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L48">
+        <v>353.5</v>
+      </c>
+      <c r="M48">
+        <v>136.9476704034534</v>
+      </c>
+      <c r="N48">
+        <v>216.5523295965466</v>
+      </c>
+      <c r="O48">
+        <v>43.31046591930933</v>
+      </c>
+      <c r="P48">
+        <v>173.2418636772373</v>
+      </c>
+      <c r="Q48">
+        <v>255.4418636772373</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.09074436148984692</v>
+      </c>
+      <c r="T48">
+        <v>1.595559117769772</v>
+      </c>
+      <c r="U48">
+        <v>0.02990791185357374</v>
+      </c>
+      <c r="V48">
+        <v>0.2</v>
+      </c>
+      <c r="W48">
+        <v>0.02392632948285899</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Baa2/BBB</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>2.581277936007051</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.0600574579134335</v>
+      </c>
+      <c r="C49">
+        <v>5099.539696926836</v>
+      </c>
+      <c r="D49">
+        <v>9217.960696926835</v>
+      </c>
+      <c r="E49">
+        <v>3004.021</v>
+      </c>
+      <c r="F49">
+        <v>4678.521</v>
+      </c>
+      <c r="G49">
+        <v>560.1</v>
+      </c>
+      <c r="H49">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>435.7</v>
+      </c>
+      <c r="K49">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L49">
+        <v>353.5</v>
+      </c>
+      <c r="M49">
+        <v>139.9247936730937</v>
+      </c>
+      <c r="N49">
+        <v>213.5752063269063</v>
+      </c>
+      <c r="O49">
+        <v>42.71504126538127</v>
+      </c>
+      <c r="P49">
+        <v>170.8601650615251</v>
+      </c>
+      <c r="Q49">
+        <v>253.0601650615251</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.09209826991790522</v>
+      </c>
+      <c r="T49">
+        <v>1.622083249060102</v>
+      </c>
+      <c r="U49">
+        <v>0.02990791185357374</v>
+      </c>
+      <c r="V49">
+        <v>0.2</v>
+      </c>
+      <c r="W49">
+        <v>0.02392632948285899</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>Baa2/BBB</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>2.526357128857965</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.09711571568580654</v>
+      </c>
+      <c r="C50">
+        <v>1110.014579551342</v>
+      </c>
+      <c r="D50">
+        <v>5327.978579551341</v>
+      </c>
+      <c r="E50">
+        <v>3103.563999999999</v>
+      </c>
+      <c r="F50">
+        <v>4778.063999999999</v>
+      </c>
+      <c r="G50">
+        <v>560.1</v>
+      </c>
+      <c r="H50">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>435.7</v>
+      </c>
+      <c r="K50">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L50">
+        <v>353.5</v>
+      </c>
+      <c r="M50">
+        <v>537.5700033427339</v>
+      </c>
+      <c r="N50">
+        <v>-184.0700033427339</v>
+      </c>
+      <c r="O50">
+        <v>-36.81400066854678</v>
+      </c>
+      <c r="P50">
+        <v>-147.2560026741871</v>
+      </c>
+      <c r="Q50">
+        <v>-65.05600267418714</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.09656610813504062</v>
+      </c>
+      <c r="T50">
+        <v>1.7096117147963</v>
+      </c>
+      <c r="U50">
+        <v>0.1125079118535737</v>
+      </c>
+      <c r="V50">
+        <v>0.1315177550093405</v>
+      </c>
+      <c r="W50">
+        <v>0.09771112386580295</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.6575887750467022</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1140996425328126</v>
+      </c>
+      <c r="C51">
+        <v>147.0144507812402</v>
+      </c>
+      <c r="D51">
+        <v>4464.52145078124</v>
+      </c>
+      <c r="E51">
+        <v>3203.107</v>
+      </c>
+      <c r="F51">
+        <v>4877.607</v>
+      </c>
+      <c r="G51">
+        <v>560.1</v>
+      </c>
+      <c r="H51">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>435.7</v>
+      </c>
+      <c r="K51">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L51">
+        <v>353.5</v>
+      </c>
+      <c r="M51">
+        <v>700.9507168123743</v>
+      </c>
+      <c r="N51">
+        <v>-347.4507168123743</v>
+      </c>
+      <c r="O51">
+        <v>-69.49014336247485</v>
+      </c>
+      <c r="P51">
+        <v>-277.9605734498994</v>
+      </c>
+      <c r="Q51">
+        <v>-195.7605734498994</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.09957887050723818</v>
+      </c>
+      <c r="T51">
+        <v>1.768634099952242</v>
+      </c>
+      <c r="U51">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V51">
+        <v>0.1008630111992945</v>
+      </c>
+      <c r="W51">
+        <v>0.1292130991308595</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.5043150559964724</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1154437216513484</v>
+      </c>
+      <c r="C52">
+        <v>-9.061992392727007</v>
+      </c>
+      <c r="D52">
+        <v>4407.988007607272</v>
+      </c>
+      <c r="E52">
+        <v>3302.65</v>
+      </c>
+      <c r="F52">
+        <v>4977.15</v>
+      </c>
+      <c r="G52">
+        <v>560.1</v>
+      </c>
+      <c r="H52">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>435.7</v>
+      </c>
+      <c r="K52">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L52">
+        <v>353.5</v>
+      </c>
+      <c r="M52">
+        <v>715.2558334820145</v>
+      </c>
+      <c r="N52">
+        <v>-361.7558334820145</v>
+      </c>
+      <c r="O52">
+        <v>-72.3511666964029</v>
+      </c>
+      <c r="P52">
+        <v>-289.4046667856116</v>
+      </c>
+      <c r="Q52">
+        <v>-207.2046667856116</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1013844479173829</v>
+      </c>
+      <c r="T52">
+        <v>1.804006781951287</v>
+      </c>
+      <c r="U52">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V52">
+        <v>0.09884575097530861</v>
+      </c>
+      <c r="W52">
+        <v>0.1295029953853138</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.4942287548765429</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1167878007698841</v>
+      </c>
+      <c r="C53">
+        <v>-163.7245928808306</v>
+      </c>
+      <c r="D53">
+        <v>4352.868407119168</v>
+      </c>
+      <c r="E53">
+        <v>3402.192999999999</v>
+      </c>
+      <c r="F53">
+        <v>5076.692999999999</v>
+      </c>
+      <c r="G53">
+        <v>560.1</v>
+      </c>
+      <c r="H53">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>435.7</v>
+      </c>
+      <c r="K53">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L53">
+        <v>353.5</v>
+      </c>
+      <c r="M53">
+        <v>729.5609501516547</v>
+      </c>
+      <c r="N53">
+        <v>-376.0609501516547</v>
+      </c>
+      <c r="O53">
+        <v>-75.21219003033093</v>
+      </c>
+      <c r="P53">
+        <v>-300.8487601213237</v>
+      </c>
+      <c r="Q53">
+        <v>-218.6487601213237</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1032637223646765</v>
+      </c>
+      <c r="T53">
+        <v>1.840823246889069</v>
+      </c>
+      <c r="U53">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V53">
+        <v>0.09690759899540061</v>
+      </c>
+      <c r="W53">
+        <v>0.1297815231592012</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.484537994977003</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1181318798884198</v>
+      </c>
+      <c r="C54">
+        <v>-317.0257337651119</v>
+      </c>
+      <c r="D54">
+        <v>4299.110266234888</v>
+      </c>
+      <c r="E54">
+        <v>3501.736</v>
+      </c>
+      <c r="F54">
+        <v>5176.236</v>
+      </c>
+      <c r="G54">
+        <v>560.1</v>
+      </c>
+      <c r="H54">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>435.7</v>
+      </c>
+      <c r="K54">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L54">
+        <v>353.5</v>
+      </c>
+      <c r="M54">
+        <v>743.866066821295</v>
+      </c>
+      <c r="N54">
+        <v>-390.366066821295</v>
+      </c>
+      <c r="O54">
+        <v>-78.073213364259</v>
+      </c>
+      <c r="P54">
+        <v>-312.292853457036</v>
+      </c>
+      <c r="Q54">
+        <v>-230.092853457036</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1052212999139406</v>
+      </c>
+      <c r="T54">
+        <v>1.879173731199258</v>
+      </c>
+      <c r="U54">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V54">
+        <v>0.09504399132241213</v>
+      </c>
+      <c r="W54">
+        <v>0.1300493383264007</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.4752199566120606</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1194759590069556</v>
+      </c>
+      <c r="C55">
+        <v>-469.0152419617334</v>
+      </c>
+      <c r="D55">
+        <v>4246.663758038266</v>
+      </c>
+      <c r="E55">
+        <v>3601.279</v>
+      </c>
+      <c r="F55">
+        <v>5275.779</v>
+      </c>
+      <c r="G55">
+        <v>560.1</v>
+      </c>
+      <c r="H55">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>435.7</v>
+      </c>
+      <c r="K55">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L55">
+        <v>353.5</v>
+      </c>
+      <c r="M55">
+        <v>758.1711834909353</v>
+      </c>
+      <c r="N55">
+        <v>-404.6711834909353</v>
+      </c>
+      <c r="O55">
+        <v>-80.93423669818706</v>
+      </c>
+      <c r="P55">
+        <v>-323.7369467927482</v>
+      </c>
+      <c r="Q55">
+        <v>-241.5369467927482</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1072621786355138</v>
+      </c>
+      <c r="T55">
+        <v>1.919156151012008</v>
+      </c>
+      <c r="U55">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V55">
+        <v>0.09325070846727228</v>
+      </c>
+      <c r="W55">
+        <v>0.1303070472608757</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.4662535423363614</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1208200381254913</v>
+      </c>
+      <c r="C56">
+        <v>-619.7405422600787</v>
+      </c>
+      <c r="D56">
+        <v>4195.481457739921</v>
+      </c>
+      <c r="E56">
+        <v>3700.822</v>
+      </c>
+      <c r="F56">
+        <v>5375.322</v>
+      </c>
+      <c r="G56">
+        <v>560.1</v>
+      </c>
+      <c r="H56">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>435.7</v>
+      </c>
+      <c r="K56">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L56">
+        <v>353.5</v>
+      </c>
+      <c r="M56">
+        <v>772.4763001605756</v>
+      </c>
+      <c r="N56">
+        <v>-418.9763001605756</v>
+      </c>
+      <c r="O56">
+        <v>-83.79526003211514</v>
+      </c>
+      <c r="P56">
+        <v>-335.1810401284605</v>
+      </c>
+      <c r="Q56">
+        <v>-252.9810401284605</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1093917912145467</v>
+      </c>
+      <c r="T56">
+        <v>1.960876936903573</v>
+      </c>
+      <c r="U56">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V56">
+        <v>0.09152384349565612</v>
+      </c>
+      <c r="W56">
+        <v>0.1305552114199997</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.4576192174782806</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1221641172440271</v>
+      </c>
+      <c r="C57">
+        <v>-769.246800355294</v>
+      </c>
+      <c r="D57">
+        <v>4145.518199644705</v>
+      </c>
+      <c r="E57">
+        <v>3800.365</v>
+      </c>
+      <c r="F57">
+        <v>5474.865</v>
+      </c>
+      <c r="G57">
+        <v>560.1</v>
+      </c>
+      <c r="H57">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>435.7</v>
+      </c>
+      <c r="K57">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L57">
+        <v>353.5</v>
+      </c>
+      <c r="M57">
+        <v>786.7814168302159</v>
+      </c>
+      <c r="N57">
+        <v>-433.2814168302159</v>
+      </c>
+      <c r="O57">
+        <v>-86.65628336604318</v>
+      </c>
+      <c r="P57">
+        <v>-346.6251334641727</v>
+      </c>
+      <c r="Q57">
+        <v>-264.4251334641727</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1116160532415366</v>
+      </c>
+      <c r="T57">
+        <v>2.004451979945875</v>
+      </c>
+      <c r="U57">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V57">
+        <v>0.08985977361391692</v>
+      </c>
+      <c r="W57">
+        <v>0.1307943514278829</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.4492988680695845</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1235081963625628</v>
+      </c>
+      <c r="C58">
+        <v>-917.5770557810256</v>
+      </c>
+      <c r="D58">
+        <v>4096.730944218974</v>
+      </c>
+      <c r="E58">
+        <v>3899.908</v>
+      </c>
+      <c r="F58">
+        <v>5574.408</v>
+      </c>
+      <c r="G58">
+        <v>560.1</v>
+      </c>
+      <c r="H58">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>435.7</v>
+      </c>
+      <c r="K58">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L58">
+        <v>353.5</v>
+      </c>
+      <c r="M58">
+        <v>801.0865334998563</v>
+      </c>
+      <c r="N58">
+        <v>-447.5865334998563</v>
+      </c>
+      <c r="O58">
+        <v>-89.51730669997126</v>
+      </c>
+      <c r="P58">
+        <v>-358.069226799885</v>
+      </c>
+      <c r="Q58">
+        <v>-275.869226799885</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1139414180879352</v>
+      </c>
+      <c r="T58">
+        <v>2.050007706762826</v>
+      </c>
+      <c r="U58">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V58">
+        <v>0.08825513479938268</v>
+      </c>
+      <c r="W58">
+        <v>0.1310249507211988</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.4412756739969134</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1248522754810985</v>
+      </c>
+      <c r="C59">
+        <v>-1064.772345564662</v>
+      </c>
+      <c r="D59">
+        <v>4049.078654435338</v>
+      </c>
+      <c r="E59">
+        <v>3999.451</v>
+      </c>
+      <c r="F59">
+        <v>5673.951</v>
+      </c>
+      <c r="G59">
+        <v>560.1</v>
+      </c>
+      <c r="H59">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>435.7</v>
+      </c>
+      <c r="K59">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L59">
+        <v>353.5</v>
+      </c>
+      <c r="M59">
+        <v>815.3916501694965</v>
+      </c>
+      <c r="N59">
+        <v>-461.8916501694965</v>
+      </c>
+      <c r="O59">
+        <v>-92.37833003389932</v>
+      </c>
+      <c r="P59">
+        <v>-369.5133201355972</v>
+      </c>
+      <c r="Q59">
+        <v>-287.3133201355972</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1163749394388174</v>
+      </c>
+      <c r="T59">
+        <v>2.097682304594521</v>
+      </c>
+      <c r="U59">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V59">
+        <v>0.0867067991011479</v>
+      </c>
+      <c r="W59">
+        <v>0.1312474588112404</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.4335339955057395</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1261963545996342</v>
+      </c>
+      <c r="C60">
+        <v>-1210.871819351844</v>
+      </c>
+      <c r="D60">
+        <v>4002.522180648155</v>
+      </c>
+      <c r="E60">
+        <v>4098.993999999999</v>
+      </c>
+      <c r="F60">
+        <v>5773.493999999999</v>
+      </c>
+      <c r="G60">
+        <v>560.1</v>
+      </c>
+      <c r="H60">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>435.7</v>
+      </c>
+      <c r="K60">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L60">
+        <v>353.5</v>
+      </c>
+      <c r="M60">
+        <v>829.6967668391367</v>
+      </c>
+      <c r="N60">
+        <v>-476.1967668391367</v>
+      </c>
+      <c r="O60">
+        <v>-95.23935336782733</v>
+      </c>
+      <c r="P60">
+        <v>-380.9574134713093</v>
+      </c>
+      <c r="Q60">
+        <v>-298.7574134713093</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1189243427587892</v>
+      </c>
+      <c r="T60">
+        <v>2.14762712137058</v>
+      </c>
+      <c r="U60">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V60">
+        <v>0.08521185428905916</v>
+      </c>
+      <c r="W60">
+        <v>0.131462294208522</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.4260592714452958</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.12754043371817</v>
+      </c>
+      <c r="C61">
+        <v>-1355.912846679011</v>
+      </c>
+      <c r="D61">
+        <v>3957.024153320988</v>
+      </c>
+      <c r="E61">
+        <v>4198.536999999999</v>
+      </c>
+      <c r="F61">
+        <v>5873.036999999999</v>
+      </c>
+      <c r="G61">
+        <v>560.1</v>
+      </c>
+      <c r="H61">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>435.7</v>
+      </c>
+      <c r="K61">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L61">
+        <v>353.5</v>
+      </c>
+      <c r="M61">
+        <v>844.001883508777</v>
+      </c>
+      <c r="N61">
+        <v>-490.501883508777</v>
+      </c>
+      <c r="O61">
+        <v>-98.10037670175541</v>
+      </c>
+      <c r="P61">
+        <v>-392.4015068070216</v>
+      </c>
+      <c r="Q61">
+        <v>-310.2015068070216</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1215981072163207</v>
+      </c>
+      <c r="T61">
+        <v>2.200008270672301</v>
+      </c>
+      <c r="U61">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V61">
+        <v>0.08376758557229544</v>
+      </c>
+      <c r="W61">
+        <v>0.1316698470499636</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.4188379278614771</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1288845128367057</v>
+      </c>
+      <c r="C62">
+        <v>-1499.931117011743</v>
+      </c>
+      <c r="D62">
+        <v>3912.548882988257</v>
+      </c>
+      <c r="E62">
+        <v>4298.079999999999</v>
+      </c>
+      <c r="F62">
+        <v>5972.579999999999</v>
+      </c>
+      <c r="G62">
+        <v>560.1</v>
+      </c>
+      <c r="H62">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>435.7</v>
+      </c>
+      <c r="K62">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L62">
+        <v>353.5</v>
+      </c>
+      <c r="M62">
+        <v>858.3070001784173</v>
+      </c>
+      <c r="N62">
+        <v>-504.8070001784173</v>
+      </c>
+      <c r="O62">
+        <v>-100.9614000356835</v>
+      </c>
+      <c r="P62">
+        <v>-403.8456001427338</v>
+      </c>
+      <c r="Q62">
+        <v>-321.6456001427338</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1244055598967287</v>
+      </c>
+      <c r="T62">
+        <v>2.255008477439109</v>
+      </c>
+      <c r="U62">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V62">
+        <v>0.08237145914609051</v>
+      </c>
+      <c r="W62">
+        <v>0.1318704814633571</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.4118572957304526</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1302285919552415</v>
+      </c>
+      <c r="C63">
+        <v>-1642.960733111773</v>
+      </c>
+      <c r="D63">
+        <v>3869.062266888227</v>
+      </c>
+      <c r="E63">
+        <v>4397.623</v>
+      </c>
+      <c r="F63">
+        <v>6072.123</v>
+      </c>
+      <c r="G63">
+        <v>560.1</v>
+      </c>
+      <c r="H63">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>435.7</v>
+      </c>
+      <c r="K63">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L63">
+        <v>353.5</v>
+      </c>
+      <c r="M63">
+        <v>872.6121168480577</v>
+      </c>
+      <c r="N63">
+        <v>-519.1121168480577</v>
+      </c>
+      <c r="O63">
+        <v>-103.8224233696115</v>
+      </c>
+      <c r="P63">
+        <v>-415.2896934784461</v>
+      </c>
+      <c r="Q63">
+        <v>-333.0896934784461</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1273569845094653</v>
+      </c>
+      <c r="T63">
+        <v>2.312829207629855</v>
+      </c>
+      <c r="U63">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V63">
+        <v>0.08102110735681034</v>
+      </c>
+      <c r="W63">
+        <v>0.1320645376992623</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.4051055367840517</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1315726710737772</v>
+      </c>
+      <c r="C64">
+        <v>-1785.034298245998</v>
+      </c>
+      <c r="D64">
+        <v>3826.531701754001</v>
+      </c>
+      <c r="E64">
+        <v>4497.165999999999</v>
+      </c>
+      <c r="F64">
+        <v>6171.665999999999</v>
+      </c>
+      <c r="G64">
+        <v>560.1</v>
+      </c>
+      <c r="H64">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>435.7</v>
+      </c>
+      <c r="K64">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L64">
+        <v>353.5</v>
+      </c>
+      <c r="M64">
+        <v>886.9172335176979</v>
+      </c>
+      <c r="N64">
+        <v>-533.4172335176979</v>
+      </c>
+      <c r="O64">
+        <v>-106.6834467035396</v>
+      </c>
+      <c r="P64">
+        <v>-426.7337868141583</v>
+      </c>
+      <c r="Q64">
+        <v>-344.5337868141584</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1304637472597144</v>
+      </c>
+      <c r="T64">
+        <v>2.373693134146431</v>
+      </c>
+      <c r="U64">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V64">
+        <v>0.07971431530266823</v>
+      </c>
+      <c r="W64">
+        <v>0.1322523340565899</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.3985715765133412</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.132916750192313</v>
+      </c>
+      <c r="C65">
+        <v>-1926.182997706155</v>
+      </c>
+      <c r="D65">
+        <v>3784.926002293845</v>
+      </c>
+      <c r="E65">
+        <v>4596.709</v>
+      </c>
+      <c r="F65">
+        <v>6271.209</v>
+      </c>
+      <c r="G65">
+        <v>560.1</v>
+      </c>
+      <c r="H65">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>435.7</v>
+      </c>
+      <c r="K65">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L65">
+        <v>353.5</v>
+      </c>
+      <c r="M65">
+        <v>901.2223501873383</v>
+      </c>
+      <c r="N65">
+        <v>-547.7223501873383</v>
+      </c>
+      <c r="O65">
+        <v>-109.5444700374677</v>
+      </c>
+      <c r="P65">
+        <v>-438.1778801498706</v>
+      </c>
+      <c r="Q65">
+        <v>-355.9778801498707</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1337384431315986</v>
+      </c>
+      <c r="T65">
+        <v>2.437847002636875</v>
+      </c>
+      <c r="U65">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V65">
+        <v>0.07844900871056237</v>
+      </c>
+      <c r="W65">
+        <v>0.132434168624796</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.3922450435528119</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1342608293108487</v>
+      </c>
+      <c r="C66">
+        <v>-2066.436675067549</v>
+      </c>
+      <c r="D66">
+        <v>3744.215324932451</v>
+      </c>
+      <c r="E66">
+        <v>4696.251999999999</v>
+      </c>
+      <c r="F66">
+        <v>6370.751999999999</v>
+      </c>
+      <c r="G66">
+        <v>560.1</v>
+      </c>
+      <c r="H66">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>435.7</v>
+      </c>
+      <c r="K66">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L66">
+        <v>353.5</v>
+      </c>
+      <c r="M66">
+        <v>915.5274668569785</v>
+      </c>
+      <c r="N66">
+        <v>-562.0274668569785</v>
+      </c>
+      <c r="O66">
+        <v>-112.4054933713957</v>
+      </c>
+      <c r="P66">
+        <v>-449.6219734855828</v>
+      </c>
+      <c r="Q66">
+        <v>-367.4219734855828</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1371950665519208</v>
+      </c>
+      <c r="T66">
+        <v>2.505564974932343</v>
+      </c>
+      <c r="U66">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V66">
+        <v>0.07722324294945986</v>
+      </c>
+      <c r="W66">
+        <v>0.1326103208627457</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.3861162147472992</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1356049084293844</v>
+      </c>
+      <c r="C67">
+        <v>-2205.823903578722</v>
+      </c>
+      <c r="D67">
+        <v>3704.371096421278</v>
+      </c>
+      <c r="E67">
+        <v>4795.795</v>
+      </c>
+      <c r="F67">
+        <v>6470.295</v>
+      </c>
+      <c r="G67">
+        <v>560.1</v>
+      </c>
+      <c r="H67">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>435.7</v>
+      </c>
+      <c r="K67">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L67">
+        <v>353.5</v>
+      </c>
+      <c r="M67">
+        <v>929.8325835266189</v>
+      </c>
+      <c r="N67">
+        <v>-576.3325835266189</v>
+      </c>
+      <c r="O67">
+        <v>-115.2665167053238</v>
+      </c>
+      <c r="P67">
+        <v>-461.0660668212951</v>
+      </c>
+      <c r="Q67">
+        <v>-378.8660668212951</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1408492113105471</v>
+      </c>
+      <c r="T67">
+        <v>2.577152545644696</v>
+      </c>
+      <c r="U67">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V67">
+        <v>0.07603519305792969</v>
+      </c>
+      <c r="W67">
+        <v>0.1327810530318353</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.3801759652896485</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1369489875479202</v>
+      </c>
+      <c r="C68">
+        <v>-2344.372053040938</v>
+      </c>
+      <c r="D68">
+        <v>3665.365946959062</v>
+      </c>
+      <c r="E68">
+        <v>4895.338</v>
+      </c>
+      <c r="F68">
+        <v>6569.838</v>
+      </c>
+      <c r="G68">
+        <v>560.1</v>
+      </c>
+      <c r="H68">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>435.7</v>
+      </c>
+      <c r="K68">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L68">
+        <v>353.5</v>
+      </c>
+      <c r="M68">
+        <v>944.1377001962591</v>
+      </c>
+      <c r="N68">
+        <v>-590.6377001962591</v>
+      </c>
+      <c r="O68">
+        <v>-118.1275400392518</v>
+      </c>
+      <c r="P68">
+        <v>-472.5101601570072</v>
+      </c>
+      <c r="Q68">
+        <v>-390.3101601570073</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1447183057608573</v>
+      </c>
+      <c r="T68">
+        <v>2.652951149928364</v>
+      </c>
+      <c r="U68">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V68">
+        <v>0.07488314467826411</v>
+      </c>
+      <c r="W68">
+        <v>0.1329466114988314</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.3744157233913205</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1382930666664559</v>
+      </c>
+      <c r="C69">
+        <v>-2482.107352506448</v>
+      </c>
+      <c r="D69">
+        <v>3627.173647493552</v>
+      </c>
+      <c r="E69">
+        <v>4994.881</v>
+      </c>
+      <c r="F69">
+        <v>6669.381</v>
+      </c>
+      <c r="G69">
+        <v>560.1</v>
+      </c>
+      <c r="H69">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>435.7</v>
+      </c>
+      <c r="K69">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L69">
+        <v>353.5</v>
+      </c>
+      <c r="M69">
+        <v>958.4428168658994</v>
+      </c>
+      <c r="N69">
+        <v>-604.9428168658994</v>
+      </c>
+      <c r="O69">
+        <v>-120.9885633731799</v>
+      </c>
+      <c r="P69">
+        <v>-483.9542534927195</v>
+      </c>
+      <c r="Q69">
+        <v>-401.7542534927196</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1488218907839136</v>
+      </c>
+      <c r="T69">
+        <v>2.733343609017102</v>
+      </c>
+      <c r="U69">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V69">
+        <v>0.0737654858024691</v>
+      </c>
+      <c r="W69">
+        <v>0.1331072279220365</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.3688274290123456</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1396371457849916</v>
+      </c>
+      <c r="C70">
+        <v>-2619.054949097364</v>
+      </c>
+      <c r="D70">
+        <v>3589.769050902636</v>
+      </c>
+      <c r="E70">
+        <v>5094.424</v>
+      </c>
+      <c r="F70">
+        <v>6768.924</v>
+      </c>
+      <c r="G70">
+        <v>560.1</v>
+      </c>
+      <c r="H70">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>435.7</v>
+      </c>
+      <c r="K70">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L70">
+        <v>353.5</v>
+      </c>
+      <c r="M70">
+        <v>972.7479335355397</v>
+      </c>
+      <c r="N70">
+        <v>-619.2479335355397</v>
+      </c>
+      <c r="O70">
+        <v>-123.8495867071079</v>
+      </c>
+      <c r="P70">
+        <v>-495.3983468284317</v>
+      </c>
+      <c r="Q70">
+        <v>-413.1983468284317</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1531819498709109</v>
+      </c>
+      <c r="T70">
+        <v>2.818760596798886</v>
+      </c>
+      <c r="U70">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V70">
+        <v>0.07268069924655045</v>
+      </c>
+      <c r="W70">
+        <v>0.1332631203327944</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.3634034962327523</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1409812249035274</v>
+      </c>
+      <c r="C71">
+        <v>-2755.238963222338</v>
+      </c>
+      <c r="D71">
+        <v>3553.128036777661</v>
+      </c>
+      <c r="E71">
+        <v>5193.967</v>
+      </c>
+      <c r="F71">
+        <v>6868.467</v>
+      </c>
+      <c r="G71">
+        <v>560.1</v>
+      </c>
+      <c r="H71">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>435.7</v>
+      </c>
+      <c r="K71">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L71">
+        <v>353.5</v>
+      </c>
+      <c r="M71">
+        <v>987.0530502051799</v>
+      </c>
+      <c r="N71">
+        <v>-633.5530502051799</v>
+      </c>
+      <c r="O71">
+        <v>-126.710610041036</v>
+      </c>
+      <c r="P71">
+        <v>-506.842440164144</v>
+      </c>
+      <c r="Q71">
+        <v>-424.642440164144</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1578233030925532</v>
+      </c>
+      <c r="T71">
+        <v>2.909688357985948</v>
+      </c>
+      <c r="U71">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V71">
+        <v>0.07162735577920913</v>
+      </c>
+      <c r="W71">
+        <v>0.1334144941229506</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.3581367788960457</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1423253040220631</v>
+      </c>
+      <c r="C72">
+        <v>-2890.682540445787</v>
+      </c>
+      <c r="D72">
+        <v>3517.227459554213</v>
+      </c>
+      <c r="E72">
+        <v>5293.51</v>
+      </c>
+      <c r="F72">
+        <v>6968.01</v>
+      </c>
+      <c r="G72">
+        <v>560.1</v>
+      </c>
+      <c r="H72">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>435.7</v>
+      </c>
+      <c r="K72">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L72">
+        <v>353.5</v>
+      </c>
+      <c r="M72">
+        <v>1001.35816687482</v>
+      </c>
+      <c r="N72">
+        <v>-647.8581668748203</v>
+      </c>
+      <c r="O72">
+        <v>-129.5716333749641</v>
+      </c>
+      <c r="P72">
+        <v>-518.2865334998562</v>
+      </c>
+      <c r="Q72">
+        <v>-436.0865334998562</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1627740798623049</v>
+      </c>
+      <c r="T72">
+        <v>3.006677969918813</v>
+      </c>
+      <c r="U72">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V72">
+        <v>0.07060410783950614</v>
+      </c>
+      <c r="W72">
+        <v>0.1335615429476738</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.3530205391975307</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1436693831405988</v>
+      </c>
+      <c r="C73">
+        <v>-3025.407900244079</v>
+      </c>
+      <c r="D73">
+        <v>3482.04509975592</v>
+      </c>
+      <c r="E73">
+        <v>5393.052999999999</v>
+      </c>
+      <c r="F73">
+        <v>7067.552999999999</v>
+      </c>
+      <c r="G73">
+        <v>560.1</v>
+      </c>
+      <c r="H73">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>435.7</v>
+      </c>
+      <c r="K73">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L73">
+        <v>353.5</v>
+      </c>
+      <c r="M73">
+        <v>1015.66328354446</v>
+      </c>
+      <c r="N73">
+        <v>-662.1632835444605</v>
+      </c>
+      <c r="O73">
+        <v>-132.4326567088921</v>
+      </c>
+      <c r="P73">
+        <v>-529.7306268355684</v>
+      </c>
+      <c r="Q73">
+        <v>-447.5306268355684</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1680662895127292</v>
+      </c>
+      <c r="T73">
+        <v>3.110356520605667</v>
+      </c>
+      <c r="U73">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V73">
+        <v>0.0696096837854286</v>
+      </c>
+      <c r="W73">
+        <v>0.1337044495519822</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.348048418927143</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1450134622591346</v>
+      </c>
+      <c r="C74">
+        <v>-3159.436381864504</v>
+      </c>
+      <c r="D74">
+        <v>3447.559618135495</v>
+      </c>
+      <c r="E74">
+        <v>5492.596</v>
+      </c>
+      <c r="F74">
+        <v>7167.096</v>
+      </c>
+      <c r="G74">
+        <v>560.1</v>
+      </c>
+      <c r="H74">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>435.7</v>
+      </c>
+      <c r="K74">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L74">
+        <v>353.5</v>
+      </c>
+      <c r="M74">
+        <v>1029.968400214101</v>
+      </c>
+      <c r="N74">
+        <v>-676.4684002141007</v>
+      </c>
+      <c r="O74">
+        <v>-135.2936800428201</v>
+      </c>
+      <c r="P74">
+        <v>-541.1747201712806</v>
+      </c>
+      <c r="Q74">
+        <v>-458.9747201712806</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1737365141381838</v>
+      </c>
+      <c r="T74">
+        <v>3.221440682055869</v>
+      </c>
+      <c r="U74">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V74">
+        <v>0.0686428826217421</v>
+      </c>
+      <c r="W74">
+        <v>0.1338433865283932</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.3432144131087105</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1463575413776703</v>
+      </c>
+      <c r="C75">
+        <v>-3292.788487485875</v>
+      </c>
+      <c r="D75">
+        <v>3413.750512514125</v>
+      </c>
+      <c r="E75">
+        <v>5592.138999999999</v>
+      </c>
+      <c r="F75">
+        <v>7266.638999999999</v>
+      </c>
+      <c r="G75">
+        <v>560.1</v>
+      </c>
+      <c r="H75">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>435.7</v>
+      </c>
+      <c r="K75">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L75">
+        <v>353.5</v>
+      </c>
+      <c r="M75">
+        <v>1044.273516883741</v>
+      </c>
+      <c r="N75">
+        <v>-690.773516883741</v>
+      </c>
+      <c r="O75">
+        <v>-138.1547033767482</v>
+      </c>
+      <c r="P75">
+        <v>-552.6188135069928</v>
+      </c>
+      <c r="Q75">
+        <v>-470.4188135069928</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.179826755402561</v>
+      </c>
+      <c r="T75">
+        <v>3.340753299909791</v>
+      </c>
+      <c r="U75">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V75">
+        <v>0.06770256916117029</v>
+      </c>
+      <c r="W75">
+        <v>0.1339785170122998</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.3385128458058514</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1477016204962061</v>
+      </c>
+      <c r="C76">
+        <v>-3425.483922864236</v>
+      </c>
+      <c r="D76">
+        <v>3380.598077135764</v>
+      </c>
+      <c r="E76">
+        <v>5691.682</v>
+      </c>
+      <c r="F76">
+        <v>7366.182</v>
+      </c>
+      <c r="G76">
+        <v>560.1</v>
+      </c>
+      <c r="H76">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>435.7</v>
+      </c>
+      <c r="K76">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L76">
+        <v>353.5</v>
+      </c>
+      <c r="M76">
+        <v>1058.578633553381</v>
+      </c>
+      <c r="N76">
+        <v>-705.0786335533815</v>
+      </c>
+      <c r="O76">
+        <v>-141.0157267106763</v>
+      </c>
+      <c r="P76">
+        <v>-564.0629068427052</v>
+      </c>
+      <c r="Q76">
+        <v>-481.8629068427052</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1863854767641979</v>
+      </c>
+      <c r="T76">
+        <v>3.469243811444783</v>
+      </c>
+      <c r="U76">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V76">
+        <v>0.06678766957791121</v>
+      </c>
+      <c r="W76">
+        <v>0.1341099953209657</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.3339383478895561</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1490456996147418</v>
+      </c>
+      <c r="C77">
+        <v>-3557.541635632977</v>
+      </c>
+      <c r="D77">
+        <v>3348.083364367022</v>
+      </c>
+      <c r="E77">
+        <v>5791.224999999999</v>
+      </c>
+      <c r="F77">
+        <v>7465.724999999999</v>
+      </c>
+      <c r="G77">
+        <v>560.1</v>
+      </c>
+      <c r="H77">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>435.7</v>
+      </c>
+      <c r="K77">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L77">
+        <v>353.5</v>
+      </c>
+      <c r="M77">
+        <v>1072.883750223022</v>
+      </c>
+      <c r="N77">
+        <v>-719.3837502230217</v>
+      </c>
+      <c r="O77">
+        <v>-143.8767500446043</v>
+      </c>
+      <c r="P77">
+        <v>-575.5070001784173</v>
+      </c>
+      <c r="Q77">
+        <v>-493.3070001784174</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1934688958347659</v>
+      </c>
+      <c r="T77">
+        <v>3.608013563902574</v>
+      </c>
+      <c r="U77">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V77">
+        <v>0.06589716731687241</v>
+      </c>
+      <c r="W77">
+        <v>0.1342379675414004</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.329485836584362</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1503897787332776</v>
+      </c>
+      <c r="C78">
+        <v>-3688.979851413774</v>
+      </c>
+      <c r="D78">
+        <v>3316.188148586225</v>
+      </c>
+      <c r="E78">
+        <v>5890.767999999999</v>
+      </c>
+      <c r="F78">
+        <v>7565.267999999999</v>
+      </c>
+      <c r="G78">
+        <v>560.1</v>
+      </c>
+      <c r="H78">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>435.7</v>
+      </c>
+      <c r="K78">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L78">
+        <v>353.5</v>
+      </c>
+      <c r="M78">
+        <v>1087.188866892662</v>
+      </c>
+      <c r="N78">
+        <v>-733.688866892662</v>
+      </c>
+      <c r="O78">
+        <v>-146.7377733785324</v>
+      </c>
+      <c r="P78">
+        <v>-586.9510935141295</v>
+      </c>
+      <c r="Q78">
+        <v>-504.7510935141295</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2011425998278812</v>
+      </c>
+      <c r="T78">
+        <v>3.758347462398516</v>
+      </c>
+      <c r="U78">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V78">
+        <v>0.06503009932586093</v>
+      </c>
+      <c r="W78">
+        <v>0.1343625720718238</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.3251504966293046</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1517338578518133</v>
+      </c>
+      <c r="C79">
+        <v>-3819.816107882945</v>
+      </c>
+      <c r="D79">
+        <v>3284.894892117054</v>
+      </c>
+      <c r="E79">
+        <v>5990.311</v>
+      </c>
+      <c r="F79">
+        <v>7664.811</v>
+      </c>
+      <c r="G79">
+        <v>560.1</v>
+      </c>
+      <c r="H79">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>435.7</v>
+      </c>
+      <c r="K79">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L79">
+        <v>353.5</v>
+      </c>
+      <c r="M79">
+        <v>1101.493983562302</v>
+      </c>
+      <c r="N79">
+        <v>-747.9939835623022</v>
+      </c>
+      <c r="O79">
+        <v>-149.5987967124605</v>
+      </c>
+      <c r="P79">
+        <v>-598.3951868498418</v>
+      </c>
+      <c r="Q79">
+        <v>-516.1951868498418</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2094835824290933</v>
+      </c>
+      <c r="T79">
+        <v>3.921753873807146</v>
+      </c>
+      <c r="U79">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V79">
+        <v>0.06418555258136924</v>
+      </c>
+      <c r="W79">
+        <v>0.1344839401209374</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.3209277629068461</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.153077936970349</v>
+      </c>
+      <c r="C80">
+        <v>-3950.067286927062</v>
+      </c>
+      <c r="D80">
+        <v>3254.186713072937</v>
+      </c>
+      <c r="E80">
+        <v>6089.853999999999</v>
+      </c>
+      <c r="F80">
+        <v>7764.353999999999</v>
+      </c>
+      <c r="G80">
+        <v>560.1</v>
+      </c>
+      <c r="H80">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>435.7</v>
+      </c>
+      <c r="K80">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L80">
+        <v>353.5</v>
+      </c>
+      <c r="M80">
+        <v>1115.799100231942</v>
+      </c>
+      <c r="N80">
+        <v>-762.2991002319425</v>
+      </c>
+      <c r="O80">
+        <v>-152.4598200463885</v>
+      </c>
+      <c r="P80">
+        <v>-609.839280185554</v>
+      </c>
+      <c r="Q80">
+        <v>-527.6392801855541</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2185828361758703</v>
+      </c>
+      <c r="T80">
+        <v>4.100015413525653</v>
+      </c>
+      <c r="U80">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V80">
+        <v>0.06336266088160808</v>
+      </c>
+      <c r="W80">
+        <v>0.1346021961687917</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.3168133044080405</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1544220160888847</v>
+      </c>
+      <c r="C81">
+        <v>-4079.749645011634</v>
+      </c>
+      <c r="D81">
+        <v>3224.047354988366</v>
+      </c>
+      <c r="E81">
+        <v>6189.397</v>
+      </c>
+      <c r="F81">
+        <v>7863.897</v>
+      </c>
+      <c r="G81">
+        <v>560.1</v>
+      </c>
+      <c r="H81">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>435.7</v>
+      </c>
+      <c r="K81">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L81">
+        <v>353.5</v>
+      </c>
+      <c r="M81">
+        <v>1130.104216901583</v>
+      </c>
+      <c r="N81">
+        <v>-776.604216901583</v>
+      </c>
+      <c r="O81">
+        <v>-155.3208433803166</v>
+      </c>
+      <c r="P81">
+        <v>-621.2833735212664</v>
+      </c>
+      <c r="Q81">
+        <v>-539.0833735212664</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2285486855175785</v>
+      </c>
+      <c r="T81">
+        <v>4.29525424274116</v>
+      </c>
+      <c r="U81">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V81">
+        <v>0.06256060188310671</v>
+      </c>
+      <c r="W81">
+        <v>0.1347174583926497</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.3128030094155335</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1557660952074205</v>
+      </c>
+      <c r="C82">
+        <v>-4208.878841877697</v>
+      </c>
+      <c r="D82">
+        <v>3194.461158122303</v>
+      </c>
+      <c r="E82">
+        <v>6288.94</v>
+      </c>
+      <c r="F82">
+        <v>7963.44</v>
+      </c>
+      <c r="G82">
+        <v>560.1</v>
+      </c>
+      <c r="H82">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>435.7</v>
+      </c>
+      <c r="K82">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L82">
+        <v>353.5</v>
+      </c>
+      <c r="M82">
+        <v>1144.409333571223</v>
+      </c>
+      <c r="N82">
+        <v>-790.9093335712232</v>
+      </c>
+      <c r="O82">
+        <v>-158.1818667142446</v>
+      </c>
+      <c r="P82">
+        <v>-632.7274668569786</v>
+      </c>
+      <c r="Q82">
+        <v>-550.5274668569787</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2395111197934574</v>
+      </c>
+      <c r="T82">
+        <v>4.510016954878219</v>
+      </c>
+      <c r="U82">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V82">
+        <v>0.06177859435956787</v>
+      </c>
+      <c r="W82">
+        <v>0.1348298390609113</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.3088929717978394</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1571101743259562</v>
+      </c>
+      <c r="C83">
+        <v>-4337.469967672727</v>
+      </c>
+      <c r="D83">
+        <v>3165.413032327273</v>
+      </c>
+      <c r="E83">
+        <v>6388.483</v>
+      </c>
+      <c r="F83">
+        <v>8062.983</v>
+      </c>
+      <c r="G83">
+        <v>560.1</v>
+      </c>
+      <c r="H83">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>435.7</v>
+      </c>
+      <c r="K83">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L83">
+        <v>353.5</v>
+      </c>
+      <c r="M83">
+        <v>1158.714450240863</v>
+      </c>
+      <c r="N83">
+        <v>-805.2144502408635</v>
+      </c>
+      <c r="O83">
+        <v>-161.0428900481727</v>
+      </c>
+      <c r="P83">
+        <v>-644.1715601926908</v>
+      </c>
+      <c r="Q83">
+        <v>-561.9715601926907</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2516274945194288</v>
+      </c>
+      <c r="T83">
+        <v>4.747386268292862</v>
+      </c>
+      <c r="U83">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V83">
+        <v>0.06101589566377074</v>
+      </c>
+      <c r="W83">
+        <v>0.1349394448978577</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.3050794783188537</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.158454253444492</v>
+      </c>
+      <c r="C84">
+        <v>-4465.537568614633</v>
+      </c>
+      <c r="D84">
+        <v>3136.888431385367</v>
+      </c>
+      <c r="E84">
+        <v>6488.026</v>
+      </c>
+      <c r="F84">
+        <v>8162.526</v>
+      </c>
+      <c r="G84">
+        <v>560.1</v>
+      </c>
+      <c r="H84">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>435.7</v>
+      </c>
+      <c r="K84">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L84">
+        <v>353.5</v>
+      </c>
+      <c r="M84">
+        <v>1173.019566910504</v>
+      </c>
+      <c r="N84">
+        <v>-819.5195669105037</v>
+      </c>
+      <c r="O84">
+        <v>-163.9039133821008</v>
+      </c>
+      <c r="P84">
+        <v>-655.615653528403</v>
+      </c>
+      <c r="Q84">
+        <v>-573.415653528403</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2650901331038416</v>
+      </c>
+      <c r="T84">
+        <v>5.011129949864688</v>
+      </c>
+      <c r="U84">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V84">
+        <v>0.06027179937518817</v>
+      </c>
+      <c r="W84">
+        <v>0.1350463774217079</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.3013589968759409</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1597983325630277</v>
+      </c>
+      <c r="C85">
+        <v>-4593.095671280541</v>
+      </c>
+      <c r="D85">
+        <v>3108.873328719459</v>
+      </c>
+      <c r="E85">
+        <v>6587.569</v>
+      </c>
+      <c r="F85">
+        <v>8262.069</v>
+      </c>
+      <c r="G85">
+        <v>560.1</v>
+      </c>
+      <c r="H85">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>435.7</v>
+      </c>
+      <c r="K85">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L85">
+        <v>353.5</v>
+      </c>
+      <c r="M85">
+        <v>1187.324683580144</v>
+      </c>
+      <c r="N85">
+        <v>-833.824683580144</v>
+      </c>
+      <c r="O85">
+        <v>-166.7649367160288</v>
+      </c>
+      <c r="P85">
+        <v>-667.0597468641151</v>
+      </c>
+      <c r="Q85">
+        <v>-584.8597468641151</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2801366115217146</v>
+      </c>
+      <c r="T85">
+        <v>5.305902299856728</v>
+      </c>
+      <c r="U85">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V85">
+        <v>0.05954563311765579</v>
+      </c>
+      <c r="W85">
+        <v>0.1351507332582364</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.297728165588279</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1611424116815634</v>
+      </c>
+      <c r="C86">
+        <v>-4720.157805605591</v>
+      </c>
+      <c r="D86">
+        <v>3081.354194394408</v>
+      </c>
+      <c r="E86">
+        <v>6687.111999999999</v>
+      </c>
+      <c r="F86">
+        <v>8361.611999999999</v>
+      </c>
+      <c r="G86">
+        <v>560.1</v>
+      </c>
+      <c r="H86">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>435.7</v>
+      </c>
+      <c r="K86">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L86">
+        <v>353.5</v>
+      </c>
+      <c r="M86">
+        <v>1201.629800249784</v>
+      </c>
+      <c r="N86">
+        <v>-848.1298002497842</v>
+      </c>
+      <c r="O86">
+        <v>-169.6259600499569</v>
+      </c>
+      <c r="P86">
+        <v>-678.5038401998274</v>
+      </c>
+      <c r="Q86">
+        <v>-596.3038401998274</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.2970638997418216</v>
+      </c>
+      <c r="T86">
+        <v>5.637521193597772</v>
+      </c>
+      <c r="U86">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V86">
+        <v>0.0588367565329218</v>
+      </c>
+      <c r="W86">
+        <v>0.1352526044319904</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.294183782664609</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.1624864908000992</v>
+      </c>
+      <c r="C87">
+        <v>-4846.737026670949</v>
+      </c>
+      <c r="D87">
+        <v>3054.317973329049</v>
+      </c>
+      <c r="E87">
+        <v>6786.654999999999</v>
+      </c>
+      <c r="F87">
+        <v>8461.154999999999</v>
+      </c>
+      <c r="G87">
+        <v>560.1</v>
+      </c>
+      <c r="H87">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>435.7</v>
+      </c>
+      <c r="K87">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L87">
+        <v>353.5</v>
+      </c>
+      <c r="M87">
+        <v>1215.934916919424</v>
+      </c>
+      <c r="N87">
+        <v>-862.4349169194245</v>
+      </c>
+      <c r="O87">
+        <v>-172.4869833838849</v>
+      </c>
+      <c r="P87">
+        <v>-689.9479335355396</v>
+      </c>
+      <c r="Q87">
+        <v>-607.7479335355397</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3162481597246097</v>
+      </c>
+      <c r="T87">
+        <v>6.013355939837624</v>
+      </c>
+      <c r="U87">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V87">
+        <v>0.05814455939724036</v>
+      </c>
+      <c r="W87">
+        <v>0.1353520786369502</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.2907227969862018</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.1638305699186349</v>
+      </c>
+      <c r="C88">
+        <v>-4972.845935354788</v>
+      </c>
+      <c r="D88">
+        <v>3027.752064645211</v>
+      </c>
+      <c r="E88">
+        <v>6886.197999999999</v>
+      </c>
+      <c r="F88">
+        <v>8560.697999999999</v>
+      </c>
+      <c r="G88">
+        <v>560.1</v>
+      </c>
+      <c r="H88">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>435.7</v>
+      </c>
+      <c r="K88">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L88">
+        <v>353.5</v>
+      </c>
+      <c r="M88">
+        <v>1230.240033589065</v>
+      </c>
+      <c r="N88">
+        <v>-876.7400335890648</v>
+      </c>
+      <c r="O88">
+        <v>-175.348006717813</v>
+      </c>
+      <c r="P88">
+        <v>-701.3920268712518</v>
+      </c>
+      <c r="Q88">
+        <v>-619.1920268712518</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3381730282763676</v>
+      </c>
+      <c r="T88">
+        <v>6.442881364111739</v>
+      </c>
+      <c r="U88">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V88">
+        <v>0.05746845986936547</v>
+      </c>
+      <c r="W88">
+        <v>0.1354492394883063</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.2873422993468274</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.1651746490371706</v>
+      </c>
+      <c r="C89">
+        <v>-5098.496697914837</v>
+      </c>
+      <c r="D89">
+        <v>3001.644302085163</v>
+      </c>
+      <c r="E89">
+        <v>6985.741</v>
+      </c>
+      <c r="F89">
+        <v>8660.241</v>
+      </c>
+      <c r="G89">
+        <v>560.1</v>
+      </c>
+      <c r="H89">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>435.7</v>
+      </c>
+      <c r="K89">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L89">
+        <v>353.5</v>
+      </c>
+      <c r="M89">
+        <v>1244.545150258705</v>
+      </c>
+      <c r="N89">
+        <v>-891.0451502587052</v>
+      </c>
+      <c r="O89">
+        <v>-178.2090300517411</v>
+      </c>
+      <c r="P89">
+        <v>-712.8361202069642</v>
+      </c>
+      <c r="Q89">
+        <v>-630.6361202069643</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.3634709535283959</v>
+      </c>
+      <c r="T89">
+        <v>6.938487622889565</v>
+      </c>
+      <c r="U89">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V89">
+        <v>0.05680790285937276</v>
+      </c>
+      <c r="W89">
+        <v>0.1355441667568726</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.2840395142968638</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.1665187281557064</v>
+      </c>
+      <c r="C90">
+        <v>-5223.701064566452</v>
+      </c>
+      <c r="D90">
+        <v>2975.982935433547</v>
+      </c>
+      <c r="E90">
+        <v>7085.284</v>
+      </c>
+      <c r="F90">
+        <v>8759.784</v>
+      </c>
+      <c r="G90">
+        <v>560.1</v>
+      </c>
+      <c r="H90">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>435.7</v>
+      </c>
+      <c r="K90">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L90">
+        <v>353.5</v>
+      </c>
+      <c r="M90">
+        <v>1258.850266928345</v>
+      </c>
+      <c r="N90">
+        <v>-905.3502669283455</v>
+      </c>
+      <c r="O90">
+        <v>-181.0700533856691</v>
+      </c>
+      <c r="P90">
+        <v>-724.2802135426764</v>
+      </c>
+      <c r="Q90">
+        <v>-642.0802135426763</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.3929851996557622</v>
+      </c>
+      <c r="T90">
+        <v>7.51669492479703</v>
+      </c>
+      <c r="U90">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V90">
+        <v>0.05616235850869808</v>
+      </c>
+      <c r="W90">
+        <v>0.1356369365875169</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.2808117925434903</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.1678628072742421</v>
+      </c>
+      <c r="C91">
+        <v>-5348.470387115831</v>
+      </c>
+      <c r="D91">
+        <v>2950.756612884169</v>
+      </c>
+      <c r="E91">
+        <v>7184.826999999999</v>
+      </c>
+      <c r="F91">
+        <v>8859.326999999999</v>
+      </c>
+      <c r="G91">
+        <v>560.1</v>
+      </c>
+      <c r="H91">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>435.7</v>
+      </c>
+      <c r="K91">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L91">
+        <v>353.5</v>
+      </c>
+      <c r="M91">
+        <v>1273.155383597986</v>
+      </c>
+      <c r="N91">
+        <v>-919.6553835979857</v>
+      </c>
+      <c r="O91">
+        <v>-183.9310767195972</v>
+      </c>
+      <c r="P91">
+        <v>-735.7243068783886</v>
+      </c>
+      <c r="Q91">
+        <v>-653.5243068783886</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.4278656723517406</v>
+      </c>
+      <c r="T91">
+        <v>8.200030827051306</v>
+      </c>
+      <c r="U91">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V91">
+        <v>0.05553132077264529</v>
+      </c>
+      <c r="W91">
+        <v>0.1357276217028659</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.2776566038632264</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.1692068863927778</v>
+      </c>
+      <c r="C92">
+        <v>-5472.815635703905</v>
+      </c>
+      <c r="D92">
+        <v>2925.954364296094</v>
+      </c>
+      <c r="E92">
+        <v>7284.369999999999</v>
+      </c>
+      <c r="F92">
+        <v>8958.869999999999</v>
+      </c>
+      <c r="G92">
+        <v>560.1</v>
+      </c>
+      <c r="H92">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>435.7</v>
+      </c>
+      <c r="K92">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L92">
+        <v>353.5</v>
+      </c>
+      <c r="M92">
+        <v>1287.460500267626</v>
+      </c>
+      <c r="N92">
+        <v>-933.960500267626</v>
+      </c>
+      <c r="O92">
+        <v>-186.7921000535252</v>
+      </c>
+      <c r="P92">
+        <v>-747.1684002141008</v>
+      </c>
+      <c r="Q92">
+        <v>-664.9684002141007</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.4697222395869147</v>
+      </c>
+      <c r="T92">
+        <v>9.020033909756437</v>
+      </c>
+      <c r="U92">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V92">
+        <v>0.05491430609739367</v>
+      </c>
+      <c r="W92">
+        <v>0.1358162915934293</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.2745715304869684</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.1705509655113136</v>
+      </c>
+      <c r="C93">
+        <v>-5596.74741471288</v>
+      </c>
+      <c r="D93">
+        <v>2901.56558528712</v>
+      </c>
+      <c r="E93">
+        <v>7383.913</v>
+      </c>
+      <c r="F93">
+        <v>9058.413</v>
+      </c>
+      <c r="G93">
+        <v>560.1</v>
+      </c>
+      <c r="H93">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>435.7</v>
+      </c>
+      <c r="K93">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L93">
+        <v>353.5</v>
+      </c>
+      <c r="M93">
+        <v>1301.765616937266</v>
+      </c>
+      <c r="N93">
+        <v>-948.2656169372665</v>
+      </c>
+      <c r="O93">
+        <v>-189.6531233874533</v>
+      </c>
+      <c r="P93">
+        <v>-758.6124935498132</v>
+      </c>
+      <c r="Q93">
+        <v>-676.4124935498132</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.5208802662076832</v>
+      </c>
+      <c r="T93">
+        <v>10.02225989972938</v>
+      </c>
+      <c r="U93">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V93">
+        <v>0.05431085218423549</v>
+      </c>
+      <c r="W93">
+        <v>0.1359030126951891</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.2715542609211774</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.1718950446298493</v>
+      </c>
+      <c r="C94">
+        <v>-5720.27597788379</v>
+      </c>
+      <c r="D94">
+        <v>2877.58002211621</v>
+      </c>
+      <c r="E94">
+        <v>7483.456</v>
+      </c>
+      <c r="F94">
+        <v>9157.956</v>
+      </c>
+      <c r="G94">
+        <v>560.1</v>
+      </c>
+      <c r="H94">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>435.7</v>
+      </c>
+      <c r="K94">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L94">
+        <v>353.5</v>
+      </c>
+      <c r="M94">
+        <v>1316.070733606907</v>
+      </c>
+      <c r="N94">
+        <v>-962.5707336069067</v>
+      </c>
+      <c r="O94">
+        <v>-192.5141467213814</v>
+      </c>
+      <c r="P94">
+        <v>-770.0565868855253</v>
+      </c>
+      <c r="Q94">
+        <v>-687.8565868855253</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.5848277994836437</v>
+      </c>
+      <c r="T94">
+        <v>11.27504238719555</v>
+      </c>
+      <c r="U94">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V94">
+        <v>0.05372051683440685</v>
+      </c>
+      <c r="W94">
+        <v>0.1359878485556064</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.2686025841720342</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.1732391237483851</v>
+      </c>
+      <c r="C95">
+        <v>-5843.411242690439</v>
+      </c>
+      <c r="D95">
+        <v>2853.98775730956</v>
+      </c>
+      <c r="E95">
+        <v>7582.999</v>
+      </c>
+      <c r="F95">
+        <v>9257.499</v>
+      </c>
+      <c r="G95">
+        <v>560.1</v>
+      </c>
+      <c r="H95">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>435.7</v>
+      </c>
+      <c r="K95">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L95">
+        <v>353.5</v>
+      </c>
+      <c r="M95">
+        <v>1330.375850276547</v>
+      </c>
+      <c r="N95">
+        <v>-976.875850276547</v>
+      </c>
+      <c r="O95">
+        <v>-195.3751700553094</v>
+      </c>
+      <c r="P95">
+        <v>-781.5006802212376</v>
+      </c>
+      <c r="Q95">
+        <v>-699.3006802212376</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.6670460565527357</v>
+      </c>
+      <c r="T95">
+        <v>12.88576272822349</v>
+      </c>
+      <c r="U95">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V95">
+        <v>0.05314287686844549</v>
+      </c>
+      <c r="W95">
+        <v>0.1360708599889179</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.2657143843422274</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.1745832028669208</v>
+      </c>
+      <c r="C96">
+        <v>-5966.162804011973</v>
+      </c>
+      <c r="D96">
+        <v>2830.779195988026</v>
+      </c>
+      <c r="E96">
+        <v>7682.541999999999</v>
+      </c>
+      <c r="F96">
+        <v>9357.041999999999</v>
+      </c>
+      <c r="G96">
+        <v>560.1</v>
+      </c>
+      <c r="H96">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>435.7</v>
+      </c>
+      <c r="K96">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L96">
+        <v>353.5</v>
+      </c>
+      <c r="M96">
+        <v>1344.680966946187</v>
+      </c>
+      <c r="N96">
+        <v>-991.1809669461873</v>
+      </c>
+      <c r="O96">
+        <v>-198.2361933892375</v>
+      </c>
+      <c r="P96">
+        <v>-792.9447735569498</v>
+      </c>
+      <c r="Q96">
+        <v>-710.7447735569499</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.7766703993115252</v>
+      </c>
+      <c r="T96">
+        <v>15.03338984959407</v>
+      </c>
+      <c r="U96">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V96">
+        <v>0.05257752711452585</v>
+      </c>
+      <c r="W96">
+        <v>0.1361521052215206</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.2628876355726293</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.1759272819854565</v>
+      </c>
+      <c r="C97">
+        <v>-6088.539947143738</v>
+      </c>
+      <c r="D97">
+        <v>2807.945052856261</v>
+      </c>
+      <c r="E97">
+        <v>7782.084999999999</v>
+      </c>
+      <c r="F97">
+        <v>9456.584999999999</v>
+      </c>
+      <c r="G97">
+        <v>560.1</v>
+      </c>
+      <c r="H97">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>435.7</v>
+      </c>
+      <c r="K97">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L97">
+        <v>353.5</v>
+      </c>
+      <c r="M97">
+        <v>1358.986083615828</v>
+      </c>
+      <c r="N97">
+        <v>-1005.486083615828</v>
+      </c>
+      <c r="O97">
+        <v>-201.0972167231655</v>
+      </c>
+      <c r="P97">
+        <v>-804.388866892662</v>
+      </c>
+      <c r="Q97">
+        <v>-722.188866892662</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.9301444791738308</v>
+      </c>
+      <c r="T97">
+        <v>18.0400678195129</v>
+      </c>
+      <c r="U97">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V97">
+        <v>0.05202407946068874</v>
+      </c>
+      <c r="W97">
+        <v>0.1362316400281738</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.2601203973034437</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.1772713611039923</v>
+      </c>
+      <c r="C98">
+        <v>-6210.551660183475</v>
+      </c>
+      <c r="D98">
+        <v>2785.476339816524</v>
+      </c>
+      <c r="E98">
+        <v>7881.627999999999</v>
+      </c>
+      <c r="F98">
+        <v>9556.127999999999</v>
+      </c>
+      <c r="G98">
+        <v>560.1</v>
+      </c>
+      <c r="H98">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>435.7</v>
+      </c>
+      <c r="K98">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L98">
+        <v>353.5</v>
+      </c>
+      <c r="M98">
+        <v>1373.291200285468</v>
+      </c>
+      <c r="N98">
+        <v>-1019.791200285468</v>
+      </c>
+      <c r="O98">
+        <v>-203.9582400570936</v>
+      </c>
+      <c r="P98">
+        <v>-815.8329602283742</v>
+      </c>
+      <c r="Q98">
+        <v>-733.6329602283743</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.160355598967286</v>
+      </c>
+      <c r="T98">
+        <v>22.55008477439107</v>
+      </c>
+      <c r="U98">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V98">
+        <v>0.05148216196630656</v>
+      </c>
+      <c r="W98">
+        <v>0.1363095178596883</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.2574108098315329</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.178615440222528</v>
+      </c>
+      <c r="C99">
+        <v>-6332.206645827562</v>
+      </c>
+      <c r="D99">
+        <v>2763.364354172436</v>
+      </c>
+      <c r="E99">
+        <v>7981.170999999998</v>
+      </c>
+      <c r="F99">
+        <v>9655.670999999998</v>
+      </c>
+      <c r="G99">
+        <v>560.1</v>
+      </c>
+      <c r="H99">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>435.7</v>
+      </c>
+      <c r="K99">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L99">
+        <v>353.5</v>
+      </c>
+      <c r="M99">
+        <v>1387.596316955108</v>
+      </c>
+      <c r="N99">
+        <v>-1034.096316955108</v>
+      </c>
+      <c r="O99">
+        <v>-206.8192633910216</v>
+      </c>
+      <c r="P99">
+        <v>-827.2770535640864</v>
+      </c>
+      <c r="Q99">
+        <v>-745.0770535640863</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.544040798623048</v>
+      </c>
+      <c r="T99">
+        <v>30.0667796991881</v>
+      </c>
+      <c r="U99">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V99">
+        <v>0.05095141802850959</v>
+      </c>
+      <c r="W99">
+        <v>0.1363857899627181</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.254757090142548</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.1799595193410637</v>
+      </c>
+      <c r="C100">
+        <v>-6453.513332609818</v>
+      </c>
+      <c r="D100">
+        <v>2741.600667390181</v>
+      </c>
+      <c r="E100">
+        <v>8080.714</v>
+      </c>
+      <c r="F100">
+        <v>9755.214</v>
+      </c>
+      <c r="G100">
+        <v>560.1</v>
+      </c>
+      <c r="H100">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>435.7</v>
+      </c>
+      <c r="K100">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L100">
+        <v>353.5</v>
+      </c>
+      <c r="M100">
+        <v>1401.901433624749</v>
+      </c>
+      <c r="N100">
+        <v>-1048.401433624749</v>
+      </c>
+      <c r="O100">
+        <v>-209.6802867249497</v>
+      </c>
+      <c r="P100">
+        <v>-838.7211468997988</v>
+      </c>
+      <c r="Q100">
+        <v>-756.5211468997989</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.311411197934572</v>
+      </c>
+      <c r="T100">
+        <v>45.10016954878214</v>
+      </c>
+      <c r="U100">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V100">
+        <v>0.05043150559964724</v>
+      </c>
+      <c r="W100">
+        <v>0.1364605054922166</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.2521575279982362</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.1813035984595995</v>
+      </c>
+      <c r="C101">
+        <v>-6574.479885613382</v>
+      </c>
+      <c r="D101">
+        <v>2720.177114386618</v>
+      </c>
+      <c r="E101">
+        <v>8180.257</v>
+      </c>
+      <c r="F101">
+        <v>9854.757</v>
+      </c>
+      <c r="G101">
+        <v>560.1</v>
+      </c>
+      <c r="H101">
+        <v>8279.799999999999</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>435.7</v>
+      </c>
+      <c r="K101">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="L101">
+        <v>353.5</v>
+      </c>
+      <c r="M101">
+        <v>1416.206550294389</v>
+      </c>
+      <c r="N101">
+        <v>-1062.706550294389</v>
+      </c>
+      <c r="O101">
+        <v>-212.5413100588778</v>
+      </c>
+      <c r="P101">
+        <v>-850.165240235511</v>
+      </c>
+      <c r="Q101">
+        <v>-767.9652402355109</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>4.613522395869142</v>
+      </c>
+      <c r="T101">
+        <v>90.20033909756428</v>
+      </c>
+      <c r="U101">
+        <v>0.1437079118535737</v>
+      </c>
+      <c r="V101">
+        <v>0.04992209645217606</v>
+      </c>
+      <c r="W101">
+        <v>0.1365337116170788</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.2496104822608803</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
